--- a/configs/Item.xlsx
+++ b/configs/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5F640D-69F0-4FBB-8A8E-0AA2B5B0B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0ECB4C-C2FE-4B2F-A640-6466A853A3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{BE06346D-0448-4393-8808-56E6116DD3E3}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{BE06346D-0448-4393-8808-56E6116DD3E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1024,7 +1024,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1062,7 +1062,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1078,7 +1078,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1397,24 +1397,24 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -1478,12 +1478,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>136</v>
       </c>
       <c r="C29" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>84</v>
@@ -2288,7 +2288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>

--- a/configs/Item.xlsx
+++ b/configs/Item.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71EF1DB-BDA9-4451-B065-E65B5209F873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E8C74-66F0-4B15-8F1D-FF4D14234A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{32817E20-F0A4-463C-B290-2589502B59A4}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{32817E20-F0A4-463C-B290-2589502B59A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$305</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="760">
   <si>
     <t>id</t>
   </si>
@@ -174,99 +174,6 @@
   </si>
   <si>
     <t>size</t>
-  </si>
-  <si>
-    <t>stat</t>
-  </si>
-  <si>
-    <t>Map&lt;StatId, number[]&gt;</t>
-  </si>
-  <si>
-    <t>xatk: 1, 2, 5, 7.5</t>
-  </si>
-  <si>
-    <t>xatk: 2, 4, 5, 7.5</t>
-  </si>
-  <si>
-    <t>xatk: 2, 4, 8, 12; matk: 0, 0.1, 1, 1.1</t>
-  </si>
-  <si>
-    <t>xatk: 1, 3, 7, 10</t>
-  </si>
-  <si>
-    <t>xatk: 1, 3, 11, 16</t>
-  </si>
-  <si>
-    <t>xatk: 2, 5, 9, 13</t>
-  </si>
-  <si>
-    <t>xatk: 0, 0.1, 8, 12; luck: 1, 2</t>
-  </si>
-  <si>
-    <t>xatk: 5, 10, 15, 22</t>
-  </si>
-  <si>
-    <t>xatk: 13, 19, 0, 0.1; curs: 7, 15</t>
-  </si>
-  <si>
-    <t>xatk: 2, 4, 12, 18</t>
-  </si>
-  <si>
-    <t>xatk: 3, 6, 12, 18</t>
-  </si>
-  <si>
-    <t>xatk: 4, 8, 10, 15; hit: 1, 2</t>
-  </si>
-  <si>
-    <t>xatk: 2, 5, 15, 22</t>
-  </si>
-  <si>
-    <t>xatk: 0, 0.1, 20, 30</t>
-  </si>
-  <si>
-    <t>xatk: 5, 10, 13, 19</t>
-  </si>
-  <si>
-    <t>xatk: 0, 0.1, 25, 37</t>
-  </si>
-  <si>
-    <t>xatk: 3, 7, 22, 33</t>
-  </si>
-  <si>
-    <t>xatk: 0, 0.1, 30, 45</t>
-  </si>
-  <si>
-    <t>xatk: 2, 5, 35, 52</t>
-  </si>
-  <si>
-    <t>xatk: 2, 5, 10, 15; matk: 0, 0.1, 1, 1.1; watk: 1, 1.1, 1.1, 1.2</t>
-  </si>
-  <si>
-    <t>xatk: 3, 6, 11, 16.5; watk: 0.5, 1, 2, 3; hit: 1, 2</t>
-  </si>
-  <si>
-    <t>xatk: 4, 8, 16, 24; watk: 0.5, 1, 3, 4.5; hit: 1, 2</t>
-  </si>
-  <si>
-    <t>xatk: 4, 8, 16, 24; watk: 1.5, 3, 5, 7.5</t>
-  </si>
-  <si>
-    <t>xatk: 4, 8, 20, 30; watk: 1.5, 3, 6, 9; hit: 1, 2</t>
-  </si>
-  <si>
-    <t>xatk: 1.5, 3, 10, 15; matk: 1, 1.1, 2, 3</t>
-  </si>
-  <si>
-    <t>xatk: 2, 4, 10, 15; matk: 1, 1.1, 3, 4.5</t>
-  </si>
-  <si>
-    <t>xatk: 2.5, 5, 9, 13.5; matk: 1, 2, 5, 7.5</t>
-  </si>
-  <si>
-    <t>xatk: 1.5, 3, 14, 21; matk: 1.5, 3, 5, 7.5; hit: 5, 7.5</t>
-  </si>
-  <si>
-    <t>xatk: 3, 6, 12, 18; matk: 1, 2, 6, 9</t>
   </si>
   <si>
     <t>warr</t>
@@ -326,9 +233,6 @@
     <t>尺寸</t>
   </si>
   <si>
-    <t>属性</t>
-  </si>
-  <si>
     <t>木剑</t>
   </si>
   <si>
@@ -644,120 +548,9 @@
     <t>神秘头盔</t>
   </si>
   <si>
-    <t>randomStat</t>
-  </si>
-  <si>
-    <t>随机属性</t>
-  </si>
-  <si>
-    <t>随机属性个数</t>
-  </si>
-  <si>
-    <t>randomStatCount</t>
-  </si>
-  <si>
-    <t>fdr:0,0.1,1,1.5;tdr:0,0.1,1,1.5;hdr:0,0.1,1,1.5;pdr:0,0.1,1,1.5</t>
-  </si>
-  <si>
-    <t>randomStatWeight</t>
-  </si>
-  <si>
-    <t>number[]</t>
-  </si>
-  <si>
-    <t>随机属性权重</t>
-  </si>
-  <si>
-    <t>fdr:0.5,1,2,3;tdr:0.5,1,2,3;hdr:0.5,1,2,3;pdr:0.5,1,2,3</t>
-  </si>
-  <si>
-    <t>xdr: 1, 2, 2, 3</t>
-  </si>
-  <si>
-    <t>xdr: 1, 2, 3,4.5</t>
-  </si>
-  <si>
-    <t>xdr:1.5, 3, 3,4.5</t>
-  </si>
-  <si>
-    <t>xdr: 1.5, 3,4,6</t>
-  </si>
-  <si>
-    <t>xdr:1.5, 3,5,7.5</t>
-  </si>
-  <si>
-    <t>xdr: 2, 4,7,10.5</t>
-  </si>
-  <si>
-    <t>fdr:1,2,3,4.5;tdr:1,2,3,4.5;hdr:1,2,3,4.5;pdr:1,2,3,4.5</t>
-  </si>
-  <si>
-    <t>xdr: 2.5,5,9,13.5</t>
-  </si>
-  <si>
-    <t>fdr:1.5,3,5,7.5;tdr:1.5,3,5,7.5;hdr:1.5,3,5,7.5;pdr:1.5,3,5,7.5</t>
-  </si>
-  <si>
-    <t>fdr:1.5,3,6,9;tdr:1.5,3,6,9;hdr:1.5,3,6,9;pdr:1.5,3,6,9</t>
-  </si>
-  <si>
-    <t>fdr:2,4,7,10.5;tdr:2,4,7,10.5;hdr:2,4,7,10.5;pdr:2,4,7,10.5</t>
-  </si>
-  <si>
-    <t>xdr: 2.5,5,12,18;xatk:0.5,1,2,3</t>
-  </si>
-  <si>
-    <t>xdr:0,0.1,2,3;watk:1.5,3,3,4.5</t>
-  </si>
-  <si>
-    <t>xdr:0.5,1,4,6;watk:1.5,3,4,6</t>
-  </si>
-  <si>
-    <t>xdr:1,2,5,7.5;watk:2,4,6,9</t>
-  </si>
-  <si>
-    <t>fdr:2,4,9,13.5;tdr:2,4,9,13.5;hdr:2,4,9,13.5;pdr:2,4,9,13.5</t>
-  </si>
-  <si>
-    <t>xdr:0,0.1,2,3;watk:1.5,3,4,6</t>
-  </si>
-  <si>
-    <t>xdr:1,2,5,7.5;watk:1.5,3,6,9</t>
-  </si>
-  <si>
-    <t>fdr:3,6,9,13.5;tdr:3,6,9,13.5;hdr:3,6,9,13.5;pdr:3,6,9,13.5</t>
-  </si>
-  <si>
     <t>helm</t>
   </si>
   <si>
-    <t>xdr:0,0.1,1,1.5</t>
-  </si>
-  <si>
-    <t>fdr:0.5,1,1,1.5;tdr:0.5,1,1,1.5;hdr:0.5,1,1,1.5;pdr:0.5,1,1,1.5</t>
-  </si>
-  <si>
-    <t>xdr:0.5,1,2,3</t>
-  </si>
-  <si>
-    <t>xdr:1,2,3,4.5</t>
-  </si>
-  <si>
-    <t>xdr:1.5,3,3,4.5</t>
-  </si>
-  <si>
-    <t>xdr:1.5,3,4,6</t>
-  </si>
-  <si>
-    <t>xdr:2,4,5,7.5</t>
-  </si>
-  <si>
-    <t>xdr:2.5,5,5,7.5</t>
-  </si>
-  <si>
-    <t>fdr:1.5,3,3,4.5;tdr:1.5,3,3,4.5;hdr:1.5,3,3,4.5;pdr:1.5,3,3,4.5</t>
-  </si>
-  <si>
     <t>奥马垫肩</t>
   </si>
   <si>
@@ -1055,72 +848,6 @@
     <t>necklace</t>
   </si>
   <si>
-    <t>xatk:2,3,0,0.1</t>
-  </si>
-  <si>
-    <t>xatk:1,2,2,3</t>
-  </si>
-  <si>
-    <t>xatk:0,0.1,5,7.5</t>
-  </si>
-  <si>
-    <t>xatk:1,2,5,7.5</t>
-  </si>
-  <si>
-    <t>matk:1,1.5,0,0.1</t>
-  </si>
-  <si>
-    <t>matk:0,0.1,2,3</t>
-  </si>
-  <si>
-    <t>matk:2,3,0,0.1</t>
-  </si>
-  <si>
-    <t>matk:0.5,1,3,4.5</t>
-  </si>
-  <si>
-    <t>xatk:1,2,2,3;matk:0.5,1,3,4.5</t>
-  </si>
-  <si>
-    <t>matk:0,0.1,4,6</t>
-  </si>
-  <si>
-    <t>watk:1,1.5,0,0.1</t>
-  </si>
-  <si>
-    <t>watk:0.5,1,1,1.5</t>
-  </si>
-  <si>
-    <t>watk:0.5,1,2,3</t>
-  </si>
-  <si>
-    <t>watk:0.5,1,3,4.5</t>
-  </si>
-  <si>
-    <t>xdr:0,0.1,1,1.5;mdoge:2,3</t>
-  </si>
-  <si>
-    <t>xatk:0,0.1,1,1.5;doge:1,1.5</t>
-  </si>
-  <si>
-    <t>hit:1,1.5</t>
-  </si>
-  <si>
-    <t>xatk:1,1.5,0,0.1;mdoge:1,1.5</t>
-  </si>
-  <si>
-    <t>watk:0.5,1,6,9;hit:2,3</t>
-  </si>
-  <si>
-    <t>matk:0,0.1,7,10.5;hit:2,3</t>
-  </si>
-  <si>
-    <t>xatk:0,0.1,1,1.5;spd:2,3</t>
-  </si>
-  <si>
-    <t>doge:2,3</t>
-  </si>
-  <si>
     <t>pauldron</t>
   </si>
   <si>
@@ -2319,6 +2046,282 @@
   </si>
   <si>
     <t>sevensinspauldron</t>
+  </si>
+  <si>
+    <t>fixedAffix</t>
+  </si>
+  <si>
+    <t>AffixId[]</t>
+  </si>
+  <si>
+    <t>Map&lt;AffixId,number&gt;</t>
+  </si>
+  <si>
+    <t>词缀+系数</t>
+  </si>
+  <si>
+    <t>xdr1,1</t>
+  </si>
+  <si>
+    <t>xdr1,1.2</t>
+  </si>
+  <si>
+    <t>xdr1,1.5</t>
+  </si>
+  <si>
+    <t>xdr1,1.7</t>
+  </si>
+  <si>
+    <t>xdr1,2</t>
+  </si>
+  <si>
+    <t>xdr1,2.1</t>
+  </si>
+  <si>
+    <t>xdr1,2.5</t>
+  </si>
+  <si>
+    <t>xdr1,3</t>
+  </si>
+  <si>
+    <t>xdr1,3.5</t>
+  </si>
+  <si>
+    <t>xdr1,5</t>
+  </si>
+  <si>
+    <t>xdr1,4:xatk1,1</t>
+  </si>
+  <si>
+    <t>xdr1,1.2:watk1,1</t>
+  </si>
+  <si>
+    <t>xdr1,1.7:watk1,1.2</t>
+  </si>
+  <si>
+    <t>xdr1,2.2:watk1,2</t>
+  </si>
+  <si>
+    <t>xdr1,2.8:watk1,2.7</t>
+  </si>
+  <si>
+    <t>xdr1,1.2:matk1,1.5</t>
+  </si>
+  <si>
+    <t>xdr1,1.5:matk1,2</t>
+  </si>
+  <si>
+    <t>xdr1,1.7:matk1,2.5</t>
+  </si>
+  <si>
+    <t>xdr1,2:matk1,3</t>
+  </si>
+  <si>
+    <t>watk1,1</t>
+  </si>
+  <si>
+    <t>matk1,1</t>
+  </si>
+  <si>
+    <t>xdr1,2.7</t>
+  </si>
+  <si>
+    <t>xdmg1,1.5</t>
+  </si>
+  <si>
+    <t>xdmg1,5</t>
+  </si>
+  <si>
+    <t>hit1,0.75</t>
+  </si>
+  <si>
+    <t>matk1,0.75</t>
+  </si>
+  <si>
+    <t>watk1,0.5</t>
+  </si>
+  <si>
+    <t>matk1,0.5</t>
+  </si>
+  <si>
+    <t>watk1,0.8</t>
+  </si>
+  <si>
+    <t>xdmg1,0.5:doge1,0.75</t>
+  </si>
+  <si>
+    <t>xatk1,0.5:mdoge1,0.7</t>
+  </si>
+  <si>
+    <t>xatk1,1</t>
+  </si>
+  <si>
+    <t>xatk1,1.5</t>
+  </si>
+  <si>
+    <t>watk1,1.5</t>
+  </si>
+  <si>
+    <t>matk1,1.5</t>
+  </si>
+  <si>
+    <t>xatk1,2</t>
+  </si>
+  <si>
+    <t>xatk1,1.75</t>
+  </si>
+  <si>
+    <t>watk1,1.75:hit1,1.5</t>
+  </si>
+  <si>
+    <t>matk1,1.7:mhit1,1.5</t>
+  </si>
+  <si>
+    <t>xatk1,1.7:matk1,1.7</t>
+  </si>
+  <si>
+    <t>matk1,2.2</t>
+  </si>
+  <si>
+    <t>xatk1,1:spd1,1</t>
+  </si>
+  <si>
+    <t>doge1,1.5</t>
+  </si>
+  <si>
+    <t>xdmg1,1</t>
+  </si>
+  <si>
+    <t>xdmg1,0.5:spd1,1</t>
+  </si>
+  <si>
+    <t>xdmg1,1.2</t>
+  </si>
+  <si>
+    <t>randomAffix</t>
+  </si>
+  <si>
+    <t>randomAffixCount</t>
+  </si>
+  <si>
+    <t>随机词缀+系数</t>
+  </si>
+  <si>
+    <t>随机词缀个数</t>
+  </si>
+  <si>
+    <t>xdmg1,1.3</t>
+  </si>
+  <si>
+    <t>xdmg1,1.4</t>
+  </si>
+  <si>
+    <t>xdmg1,1.6</t>
+  </si>
+  <si>
+    <t>xdmg1,1:luck1,1</t>
+  </si>
+  <si>
+    <t>xdmg1rev,1.5:curs1,5</t>
+  </si>
+  <si>
+    <t>xdmg1,3</t>
+  </si>
+  <si>
+    <t>xdmg1,4</t>
+  </si>
+  <si>
+    <t>xdmg1,3.1</t>
+  </si>
+  <si>
+    <t>xdmg1,3.1:hit1,1</t>
+  </si>
+  <si>
+    <t>xdmg1,3.2</t>
+  </si>
+  <si>
+    <t>xdmg1,3.5</t>
+  </si>
+  <si>
+    <t>xdmg1,3.6</t>
+  </si>
+  <si>
+    <t>xdmg1,4.2</t>
+  </si>
+  <si>
+    <t>xdmg1,4.8</t>
+  </si>
+  <si>
+    <t>xdmg1,2.5:watk1,1:hit1,1</t>
+  </si>
+  <si>
+    <t>xdmg1,3:watk1,1.5:mhit1,1</t>
+  </si>
+  <si>
+    <t>xdmg1,2:watk1,3.8</t>
+  </si>
+  <si>
+    <t>xdmg1,3.5:watk1,4:hit1,1</t>
+  </si>
+  <si>
+    <t>xdmg1,2.5:watk1,1</t>
+  </si>
+  <si>
+    <t>xdmg1,1.7</t>
+  </si>
+  <si>
+    <t>xdmg1,2.2</t>
+  </si>
+  <si>
+    <t>xdmg1,2.7</t>
+  </si>
+  <si>
+    <t>xdmg1,3.2:hit1,4:mhit1,2</t>
+  </si>
+  <si>
+    <t>excludeAffix</t>
+  </si>
+  <si>
+    <t>禁用词缀</t>
+  </si>
+  <si>
+    <t>$res1,0.5/fthp/:</t>
+  </si>
+  <si>
+    <t>$res1,1/fthp/:</t>
+  </si>
+  <si>
+    <t>$res1,1.5/fthp/:</t>
+  </si>
+  <si>
+    <t>$res1,1.7/fthp/:</t>
+  </si>
+  <si>
+    <t>$res1,2/fthp/:</t>
+  </si>
+  <si>
+    <t>$dmg1,0.5/fthp/:</t>
+  </si>
+  <si>
+    <t>$dmg1,1/hp/:</t>
+  </si>
+  <si>
+    <t>$dmg1,1.5/hp/:</t>
+  </si>
+  <si>
+    <t>$dmg1,1/ft/:</t>
+  </si>
+  <si>
+    <t>$dmg1,2/ft/:</t>
+  </si>
+  <si>
+    <t>$dmg1,3/ft/:</t>
+  </si>
+  <si>
+    <t>$dmg1,4/ft/:</t>
+  </si>
+  <si>
+    <t>xdr1,0.5:mdoge1,1.5</t>
   </si>
 </sst>
 </file>
@@ -2717,28 +2720,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
@@ -2767,21 +2771,21 @@
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>668</v>
       </c>
       <c r="K1" t="s">
-        <v>200</v>
+        <v>718</v>
       </c>
       <c r="L1" t="s">
-        <v>205</v>
+        <v>719</v>
       </c>
       <c r="M1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -2802,76 +2806,76 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>670</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>670</v>
       </c>
       <c r="L2" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>590</v>
+        <v>499</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>671</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>201</v>
+        <v>720</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>207</v>
+        <v>721</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2880,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>39</v>
@@ -2892,18 +2896,18 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>209</v>
+        <v>672</v>
       </c>
       <c r="K5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2914,16 +2918,19 @@
       <c r="H6" t="s">
         <v>43</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -2934,19 +2941,22 @@
       <c r="H7" t="s">
         <v>43</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7" t="s">
-        <v>211</v>
+        <v>674</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -2957,16 +2967,19 @@
       <c r="H8" t="s">
         <v>43</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="J8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>28</v>
@@ -2977,19 +2990,22 @@
       <c r="H9" t="s">
         <v>43</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9" t="s">
-        <v>213</v>
+        <v>676</v>
       </c>
       <c r="K9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>28</v>
@@ -3000,13 +3016,19 @@
       <c r="H10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -3017,13 +3039,19 @@
       <c r="H11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C12">
         <v>35</v>
@@ -3034,13 +3062,19 @@
       <c r="H12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -3049,24 +3083,27 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
       </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
       <c r="J13" t="s">
-        <v>214</v>
+        <v>678</v>
       </c>
       <c r="K13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -3075,24 +3112,27 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14" t="s">
-        <v>216</v>
+        <v>680</v>
       </c>
       <c r="K14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C15">
         <v>35</v>
@@ -3101,24 +3141,27 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15" t="s">
-        <v>220</v>
+        <v>682</v>
       </c>
       <c r="K15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C16">
         <v>35</v>
@@ -3127,18 +3170,27 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>681</v>
+      </c>
+      <c r="K16" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C17">
         <v>21</v>
@@ -3147,24 +3199,27 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="J17" t="s">
-        <v>221</v>
+        <v>683</v>
       </c>
       <c r="K17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C18">
         <v>21</v>
@@ -3173,24 +3228,27 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
       </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
       <c r="J18" t="s">
-        <v>222</v>
+        <v>684</v>
       </c>
       <c r="K18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -3199,24 +3257,27 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
       </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
       <c r="J19" t="s">
-        <v>223</v>
+        <v>685</v>
       </c>
       <c r="K19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C20">
         <v>35</v>
@@ -3225,18 +3286,27 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>686</v>
+      </c>
+      <c r="K20" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -3245,24 +3315,27 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
       </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21" t="s">
-        <v>225</v>
+        <v>687</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -3271,24 +3344,27 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>688</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -3297,24 +3373,27 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
       </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>689</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -3323,662 +3402,845 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>690</v>
+      </c>
+      <c r="K24" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>626</v>
+        <v>535</v>
       </c>
       <c r="B26" t="s">
-        <v>621</v>
+        <v>530</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>627</v>
+        <v>536</v>
       </c>
       <c r="B27" t="s">
-        <v>622</v>
+        <v>531</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>628</v>
+        <v>537</v>
       </c>
       <c r="B28" t="s">
-        <v>623</v>
+        <v>532</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>629</v>
+        <v>538</v>
       </c>
       <c r="B29" t="s">
-        <v>624</v>
+        <v>533</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>630</v>
+        <v>539</v>
       </c>
       <c r="B30" t="s">
-        <v>625</v>
+        <v>534</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="B31" t="s">
+        <v>295</v>
+      </c>
+      <c r="H31" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>386</v>
       </c>
-      <c r="H31" t="s">
+      <c r="B32" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" t="s">
+        <v>244</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" t="s">
+        <v>297</v>
+      </c>
+      <c r="H33" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>388</v>
+      </c>
+      <c r="B34" t="s">
+        <v>298</v>
+      </c>
+      <c r="H34" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>389</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="H35" t="s">
+        <v>244</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>390</v>
+      </c>
+      <c r="B36" t="s">
+        <v>300</v>
+      </c>
+      <c r="H36" t="s">
+        <v>244</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>412</v>
+      </c>
+      <c r="B39" t="s">
+        <v>316</v>
+      </c>
+      <c r="H39" t="s">
+        <v>244</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>415</v>
+      </c>
+      <c r="B40" t="s">
+        <v>319</v>
+      </c>
+      <c r="H40" t="s">
+        <v>244</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" t="s">
+        <v>323</v>
+      </c>
+      <c r="H41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>420</v>
+      </c>
+      <c r="B42" t="s">
+        <v>324</v>
+      </c>
+      <c r="H42" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>423</v>
+      </c>
+      <c r="B43" t="s">
+        <v>327</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>244</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>437</v>
+      </c>
+      <c r="B44" t="s">
+        <v>341</v>
+      </c>
+      <c r="H44" t="s">
+        <v>244</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>438</v>
+      </c>
+      <c r="B45" t="s">
+        <v>342</v>
+      </c>
+      <c r="H45" t="s">
+        <v>244</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>551</v>
+      </c>
+      <c r="B46" t="s">
+        <v>540</v>
+      </c>
+      <c r="H46" t="s">
+        <v>244</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>552</v>
+      </c>
+      <c r="B47" t="s">
+        <v>541</v>
+      </c>
+      <c r="H47" t="s">
+        <v>244</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>553</v>
+      </c>
+      <c r="B48" t="s">
+        <v>542</v>
+      </c>
+      <c r="H48" t="s">
+        <v>244</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>554</v>
+      </c>
+      <c r="B49" t="s">
+        <v>543</v>
+      </c>
+      <c r="H49" t="s">
+        <v>244</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>555</v>
+      </c>
+      <c r="B50" t="s">
+        <v>544</v>
+      </c>
+      <c r="H50" t="s">
+        <v>244</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>556</v>
+      </c>
+      <c r="B51" t="s">
+        <v>545</v>
+      </c>
+      <c r="H51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>557</v>
+      </c>
+      <c r="B52" t="s">
+        <v>546</v>
+      </c>
+      <c r="H52" t="s">
+        <v>244</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>558</v>
+      </c>
+      <c r="B53" t="s">
+        <v>547</v>
+      </c>
+      <c r="H53" t="s">
+        <v>244</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>559</v>
+      </c>
+      <c r="B54" t="s">
+        <v>548</v>
+      </c>
+      <c r="H54" t="s">
+        <v>244</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>560</v>
+      </c>
+      <c r="B55" t="s">
+        <v>549</v>
+      </c>
+      <c r="H55" t="s">
+        <v>244</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>561</v>
+      </c>
+      <c r="B56" t="s">
+        <v>550</v>
+      </c>
+      <c r="H56" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>401</v>
+      </c>
+      <c r="B57" t="s">
+        <v>309</v>
+      </c>
+      <c r="H57" t="s">
+        <v>270</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>402</v>
+      </c>
+      <c r="B58" t="s">
+        <v>310</v>
+      </c>
+      <c r="H58" t="s">
+        <v>270</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>403</v>
+      </c>
+      <c r="B59" t="s">
+        <v>311</v>
+      </c>
+      <c r="H59" t="s">
+        <v>270</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>404</v>
+      </c>
+      <c r="B60" t="s">
+        <v>312</v>
+      </c>
+      <c r="H60" t="s">
+        <v>270</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>405</v>
+      </c>
+      <c r="B61" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>477</v>
-      </c>
-      <c r="B32" t="s">
-        <v>387</v>
-      </c>
-      <c r="H32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>478</v>
-      </c>
-      <c r="B33" t="s">
-        <v>388</v>
-      </c>
-      <c r="H33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>479</v>
-      </c>
-      <c r="B34" t="s">
-        <v>389</v>
-      </c>
-      <c r="H34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>480</v>
-      </c>
-      <c r="B35" t="s">
-        <v>390</v>
-      </c>
-      <c r="H35" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>481</v>
-      </c>
-      <c r="B36" t="s">
-        <v>391</v>
-      </c>
-      <c r="H36" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>482</v>
-      </c>
-      <c r="B37" t="s">
-        <v>392</v>
-      </c>
-      <c r="H37" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>483</v>
-      </c>
-      <c r="B38" t="s">
-        <v>302</v>
-      </c>
-      <c r="H38" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>503</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="H61" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>406</v>
+      </c>
+      <c r="B62" t="s">
+        <v>314</v>
+      </c>
+      <c r="H62" t="s">
+        <v>270</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>407</v>
       </c>
-      <c r="H39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>506</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B63" t="s">
+        <v>315</v>
+      </c>
+      <c r="H63" t="s">
+        <v>270</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>408</v>
+      </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64" t="s">
+        <v>270</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>409</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="H65" t="s">
+        <v>270</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>410</v>
       </c>
-      <c r="H40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>510</v>
-      </c>
-      <c r="B41" t="s">
-        <v>414</v>
-      </c>
-      <c r="H41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>511</v>
-      </c>
-      <c r="B42" t="s">
-        <v>415</v>
-      </c>
-      <c r="H42" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>514</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="H66" t="s">
+        <v>270</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>411</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67" t="s">
+        <v>270</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>418</v>
       </c>
-      <c r="E43" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>528</v>
-      </c>
-      <c r="B44" t="s">
-        <v>432</v>
-      </c>
-      <c r="H44" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>529</v>
-      </c>
-      <c r="B45" t="s">
-        <v>433</v>
-      </c>
-      <c r="H45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>642</v>
-      </c>
-      <c r="B46" t="s">
-        <v>631</v>
-      </c>
-      <c r="H46" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>643</v>
-      </c>
-      <c r="B47" t="s">
-        <v>632</v>
-      </c>
-      <c r="H47" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>644</v>
-      </c>
-      <c r="B48" t="s">
-        <v>633</v>
-      </c>
-      <c r="H48" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>645</v>
-      </c>
-      <c r="B49" t="s">
-        <v>634</v>
-      </c>
-      <c r="H49" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>646</v>
-      </c>
-      <c r="B50" t="s">
-        <v>635</v>
-      </c>
-      <c r="H50" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>647</v>
-      </c>
-      <c r="B51" t="s">
-        <v>636</v>
-      </c>
-      <c r="H51" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>648</v>
-      </c>
-      <c r="B52" t="s">
-        <v>637</v>
-      </c>
-      <c r="H52" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>649</v>
-      </c>
-      <c r="B53" t="s">
-        <v>638</v>
-      </c>
-      <c r="H53" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>650</v>
-      </c>
-      <c r="B54" t="s">
-        <v>639</v>
-      </c>
-      <c r="H54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>651</v>
-      </c>
-      <c r="B55" t="s">
-        <v>640</v>
-      </c>
-      <c r="H55" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>652</v>
-      </c>
-      <c r="B56" t="s">
-        <v>641</v>
-      </c>
-      <c r="H56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>492</v>
-      </c>
-      <c r="B57" t="s">
-        <v>400</v>
-      </c>
-      <c r="H57" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>493</v>
-      </c>
-      <c r="B58" t="s">
-        <v>401</v>
-      </c>
-      <c r="H58" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>494</v>
-      </c>
-      <c r="B59" t="s">
-        <v>402</v>
-      </c>
-      <c r="H59" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B68" t="s">
+        <v>322</v>
+      </c>
+      <c r="H68" t="s">
+        <v>270</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>424</v>
+      </c>
+      <c r="B69" t="s">
+        <v>328</v>
+      </c>
+      <c r="H69" t="s">
+        <v>270</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>426</v>
+      </c>
+      <c r="B70" t="s">
+        <v>330</v>
+      </c>
+      <c r="H70" t="s">
+        <v>270</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>431</v>
+      </c>
+      <c r="B71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H71" t="s">
+        <v>270</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>439</v>
+      </c>
+      <c r="B72" t="s">
+        <v>343</v>
+      </c>
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>270</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>571</v>
+      </c>
+      <c r="B73" t="s">
+        <v>562</v>
+      </c>
+      <c r="H73" t="s">
+        <v>270</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>572</v>
+      </c>
+      <c r="B74" t="s">
+        <v>573</v>
+      </c>
+      <c r="H74" t="s">
+        <v>270</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>574</v>
+      </c>
+      <c r="B75" t="s">
+        <v>563</v>
+      </c>
+      <c r="H75" t="s">
+        <v>270</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>575</v>
+      </c>
+      <c r="B76" t="s">
+        <v>564</v>
+      </c>
+      <c r="H76" t="s">
+        <v>270</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>576</v>
+      </c>
+      <c r="B77" t="s">
+        <v>565</v>
+      </c>
+      <c r="H77" t="s">
+        <v>270</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>577</v>
+      </c>
+      <c r="B78" t="s">
+        <v>566</v>
+      </c>
+      <c r="H78" t="s">
+        <v>270</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>578</v>
+      </c>
+      <c r="B79" t="s">
+        <v>567</v>
+      </c>
+      <c r="H79" t="s">
+        <v>270</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>579</v>
+      </c>
+      <c r="B80" t="s">
+        <v>568</v>
+      </c>
+      <c r="H80" t="s">
+        <v>270</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>580</v>
+      </c>
+      <c r="B81" t="s">
+        <v>569</v>
+      </c>
+      <c r="H81" t="s">
+        <v>270</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>581</v>
+      </c>
+      <c r="B82" t="s">
+        <v>570</v>
+      </c>
+      <c r="H82" t="s">
+        <v>270</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>495</v>
       </c>
-      <c r="B60" t="s">
-        <v>403</v>
-      </c>
-      <c r="H60" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>496</v>
-      </c>
-      <c r="B61" t="s">
-        <v>404</v>
-      </c>
-      <c r="H61" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>497</v>
-      </c>
-      <c r="B62" t="s">
-        <v>405</v>
-      </c>
-      <c r="H62" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>498</v>
-      </c>
-      <c r="B63" t="s">
-        <v>406</v>
-      </c>
-      <c r="H63" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>499</v>
-      </c>
-      <c r="B64" t="s">
-        <v>252</v>
-      </c>
-      <c r="H64" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>500</v>
-      </c>
-      <c r="B65" t="s">
-        <v>253</v>
-      </c>
-      <c r="H65" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>501</v>
-      </c>
-      <c r="B66" t="s">
-        <v>254</v>
-      </c>
-      <c r="H66" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>502</v>
-      </c>
-      <c r="B67" t="s">
-        <v>255</v>
-      </c>
-      <c r="H67" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>509</v>
-      </c>
-      <c r="B68" t="s">
-        <v>413</v>
-      </c>
-      <c r="H68" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>515</v>
-      </c>
-      <c r="B69" t="s">
-        <v>419</v>
-      </c>
-      <c r="H69" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>517</v>
-      </c>
-      <c r="B70" t="s">
-        <v>421</v>
-      </c>
-      <c r="H70" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>522</v>
-      </c>
-      <c r="B71" t="s">
-        <v>426</v>
-      </c>
-      <c r="H71" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>530</v>
-      </c>
-      <c r="B72" t="s">
-        <v>434</v>
-      </c>
-      <c r="E72" t="s">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>662</v>
-      </c>
-      <c r="B73" t="s">
-        <v>653</v>
-      </c>
-      <c r="H73" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>663</v>
-      </c>
-      <c r="B74" t="s">
-        <v>664</v>
-      </c>
-      <c r="H74" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>665</v>
-      </c>
-      <c r="B75" t="s">
-        <v>654</v>
-      </c>
-      <c r="H75" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>666</v>
-      </c>
-      <c r="B76" t="s">
-        <v>655</v>
-      </c>
-      <c r="H76" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>667</v>
-      </c>
-      <c r="B77" t="s">
-        <v>656</v>
-      </c>
-      <c r="H77" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>668</v>
-      </c>
-      <c r="B78" t="s">
-        <v>657</v>
-      </c>
-      <c r="H78" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>669</v>
-      </c>
-      <c r="B79" t="s">
-        <v>658</v>
-      </c>
-      <c r="H79" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>670</v>
-      </c>
-      <c r="B80" t="s">
-        <v>659</v>
-      </c>
-      <c r="H80" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>671</v>
-      </c>
-      <c r="B81" t="s">
-        <v>660</v>
-      </c>
-      <c r="H81" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>672</v>
-      </c>
-      <c r="B82" t="s">
-        <v>661</v>
-      </c>
-      <c r="H82" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>586</v>
-      </c>
       <c r="B83" t="s">
-        <v>362</v>
+        <v>271</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3987,15 +4249,18 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>587</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s">
-        <v>363</v>
+        <v>272</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -4004,15 +4269,18 @@
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>588</v>
+        <v>497</v>
       </c>
       <c r="B85" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4021,1980 +4289,2385 @@
         <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="B86" t="s">
+        <v>289</v>
+      </c>
+      <c r="H86" t="s">
+        <v>243</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>375</v>
+      </c>
+      <c r="B87" t="s">
+        <v>228</v>
+      </c>
+      <c r="H87" t="s">
+        <v>243</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" t="s">
+        <v>290</v>
+      </c>
+      <c r="H88" t="s">
+        <v>243</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>377</v>
+      </c>
+      <c r="B89" t="s">
+        <v>291</v>
+      </c>
+      <c r="H89" t="s">
+        <v>243</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>378</v>
+      </c>
+      <c r="B90" t="s">
+        <v>292</v>
+      </c>
+      <c r="H90" t="s">
+        <v>243</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>379</v>
+      </c>
+      <c r="B91" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" t="s">
+        <v>243</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>380</v>
       </c>
-      <c r="H86" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>466</v>
-      </c>
-      <c r="B87" t="s">
-        <v>297</v>
-      </c>
-      <c r="H87" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>467</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="B92" t="s">
+        <v>294</v>
+      </c>
+      <c r="H92" t="s">
+        <v>243</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>381</v>
       </c>
-      <c r="H88" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>468</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="B93" t="s">
+        <v>229</v>
+      </c>
+      <c r="H93" t="s">
+        <v>243</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>382</v>
       </c>
-      <c r="H89" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>469</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="B94" t="s">
+        <v>230</v>
+      </c>
+      <c r="H94" t="s">
+        <v>243</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>383</v>
       </c>
-      <c r="H90" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>470</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="B95" t="s">
+        <v>231</v>
+      </c>
+      <c r="H95" t="s">
+        <v>243</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>384</v>
       </c>
-      <c r="H91" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>471</v>
-      </c>
-      <c r="B92" t="s">
-        <v>385</v>
-      </c>
-      <c r="H92" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>472</v>
-      </c>
-      <c r="B93" t="s">
-        <v>298</v>
-      </c>
-      <c r="H93" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B96" t="s">
+        <v>232</v>
+      </c>
+      <c r="H96" t="s">
+        <v>243</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>413</v>
+      </c>
+      <c r="B97" t="s">
+        <v>317</v>
+      </c>
+      <c r="H97" t="s">
+        <v>243</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>422</v>
+      </c>
+      <c r="B98" t="s">
+        <v>326</v>
+      </c>
+      <c r="H98" t="s">
+        <v>243</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>428</v>
+      </c>
+      <c r="B99" t="s">
+        <v>332</v>
+      </c>
+      <c r="H99" t="s">
+        <v>243</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>432</v>
+      </c>
+      <c r="B100" t="s">
+        <v>336</v>
+      </c>
+      <c r="H100" t="s">
+        <v>243</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>442</v>
+      </c>
+      <c r="B101" t="s">
+        <v>345</v>
+      </c>
+      <c r="H101" t="s">
+        <v>243</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>592</v>
+      </c>
+      <c r="B102" t="s">
+        <v>582</v>
+      </c>
+      <c r="H102" t="s">
+        <v>243</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>593</v>
+      </c>
+      <c r="B103" t="s">
+        <v>583</v>
+      </c>
+      <c r="H103" t="s">
+        <v>243</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>594</v>
+      </c>
+      <c r="B104" t="s">
+        <v>584</v>
+      </c>
+      <c r="H104" t="s">
+        <v>243</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>595</v>
+      </c>
+      <c r="B105" t="s">
+        <v>585</v>
+      </c>
+      <c r="H105" t="s">
+        <v>243</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>596</v>
+      </c>
+      <c r="B106" t="s">
+        <v>586</v>
+      </c>
+      <c r="H106" t="s">
+        <v>243</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>597</v>
+      </c>
+      <c r="B107" t="s">
+        <v>587</v>
+      </c>
+      <c r="H107" t="s">
+        <v>243</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>598</v>
+      </c>
+      <c r="B108" t="s">
+        <v>588</v>
+      </c>
+      <c r="H108" t="s">
+        <v>243</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>599</v>
+      </c>
+      <c r="B109" t="s">
+        <v>589</v>
+      </c>
+      <c r="H109" t="s">
+        <v>243</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>600</v>
+      </c>
+      <c r="B110" t="s">
+        <v>590</v>
+      </c>
+      <c r="H110" t="s">
+        <v>243</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>601</v>
+      </c>
+      <c r="B111" t="s">
+        <v>591</v>
+      </c>
+      <c r="H111" t="s">
+        <v>243</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+      <c r="B112" t="s">
+        <v>152</v>
+      </c>
+      <c r="H112" t="s">
+        <v>168</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>503</v>
+      </c>
+      <c r="B113" t="s">
+        <v>153</v>
+      </c>
+      <c r="H113" t="s">
+        <v>168</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>504</v>
+      </c>
+      <c r="B114" t="s">
+        <v>154</v>
+      </c>
+      <c r="H114" t="s">
+        <v>168</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>505</v>
+      </c>
+      <c r="B115" t="s">
+        <v>156</v>
+      </c>
+      <c r="H115" t="s">
+        <v>168</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>506</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="H116" t="s">
+        <v>168</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>507</v>
+      </c>
+      <c r="B117" t="s">
+        <v>157</v>
+      </c>
+      <c r="H117" t="s">
+        <v>168</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>508</v>
+      </c>
+      <c r="B118" t="s">
+        <v>158</v>
+      </c>
+      <c r="H118" t="s">
+        <v>168</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>509</v>
+      </c>
+      <c r="B119" t="s">
+        <v>159</v>
+      </c>
+      <c r="H119" t="s">
+        <v>168</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>672</v>
+      </c>
+      <c r="K119" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>510</v>
+      </c>
+      <c r="B120" t="s">
+        <v>160</v>
+      </c>
+      <c r="H120" t="s">
+        <v>168</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>676</v>
+      </c>
+      <c r="K120" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>511</v>
+      </c>
+      <c r="B121" t="s">
+        <v>161</v>
+      </c>
+      <c r="H121" t="s">
+        <v>168</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>512</v>
+      </c>
+      <c r="B122" t="s">
+        <v>162</v>
+      </c>
+      <c r="H122" t="s">
+        <v>168</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>513</v>
+      </c>
+      <c r="B123" t="s">
+        <v>163</v>
+      </c>
+      <c r="H123" t="s">
+        <v>168</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>675</v>
+      </c>
+      <c r="K123" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>514</v>
+      </c>
+      <c r="B124" t="s">
+        <v>164</v>
+      </c>
+      <c r="H124" t="s">
+        <v>168</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>679</v>
+      </c>
+      <c r="K124" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>515</v>
+      </c>
+      <c r="B125" t="s">
+        <v>167</v>
+      </c>
+      <c r="H125" t="s">
+        <v>168</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>693</v>
+      </c>
+      <c r="K125" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>430</v>
+      </c>
+      <c r="B126" t="s">
+        <v>334</v>
+      </c>
+      <c r="H126" t="s">
+        <v>168</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>434</v>
+      </c>
+      <c r="B127" t="s">
+        <v>338</v>
+      </c>
+      <c r="E127" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" t="s">
+        <v>168</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>435</v>
+      </c>
+      <c r="B128" t="s">
+        <v>339</v>
+      </c>
+      <c r="E128" t="s">
+        <v>47</v>
+      </c>
+      <c r="H128" t="s">
+        <v>168</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>436</v>
+      </c>
+      <c r="B129" t="s">
+        <v>340</v>
+      </c>
+      <c r="E129" t="s">
+        <v>46</v>
+      </c>
+      <c r="H129" t="s">
+        <v>168</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>610</v>
+      </c>
+      <c r="B130" t="s">
+        <v>602</v>
+      </c>
+      <c r="H130" t="s">
+        <v>168</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>611</v>
+      </c>
+      <c r="B131" t="s">
+        <v>603</v>
+      </c>
+      <c r="H131" t="s">
+        <v>168</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>612</v>
+      </c>
+      <c r="B132" t="s">
+        <v>604</v>
+      </c>
+      <c r="H132" t="s">
+        <v>168</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>613</v>
+      </c>
+      <c r="B133" t="s">
+        <v>605</v>
+      </c>
+      <c r="H133" t="s">
+        <v>168</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>614</v>
+      </c>
+      <c r="B134" t="s">
+        <v>606</v>
+      </c>
+      <c r="H134" t="s">
+        <v>168</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>615</v>
+      </c>
+      <c r="B135" t="s">
+        <v>607</v>
+      </c>
+      <c r="H135" t="s">
+        <v>168</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>616</v>
+      </c>
+      <c r="B136" t="s">
+        <v>608</v>
+      </c>
+      <c r="H136" t="s">
+        <v>168</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>617</v>
+      </c>
+      <c r="B137" t="s">
+        <v>609</v>
+      </c>
+      <c r="H137" t="s">
+        <v>168</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>473</v>
       </c>
-      <c r="B94" t="s">
-        <v>299</v>
-      </c>
-      <c r="H94" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>474</v>
-      </c>
-      <c r="B95" t="s">
-        <v>300</v>
-      </c>
-      <c r="H95" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>475</v>
-      </c>
-      <c r="B96" t="s">
-        <v>301</v>
-      </c>
-      <c r="H96" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>504</v>
-      </c>
-      <c r="B97" t="s">
-        <v>408</v>
-      </c>
-      <c r="H97" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>513</v>
-      </c>
-      <c r="B98" t="s">
-        <v>417</v>
-      </c>
-      <c r="H98" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>519</v>
-      </c>
-      <c r="B99" t="s">
-        <v>423</v>
-      </c>
-      <c r="H99" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>523</v>
-      </c>
-      <c r="B100" t="s">
-        <v>427</v>
-      </c>
-      <c r="H100" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>533</v>
-      </c>
-      <c r="B101" t="s">
-        <v>436</v>
-      </c>
-      <c r="H101" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>683</v>
-      </c>
-      <c r="B102" t="s">
-        <v>673</v>
-      </c>
-      <c r="H102" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>684</v>
-      </c>
-      <c r="B103" t="s">
-        <v>674</v>
-      </c>
-      <c r="H103" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>685</v>
-      </c>
-      <c r="B104" t="s">
-        <v>675</v>
-      </c>
-      <c r="H104" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>686</v>
-      </c>
-      <c r="B105" t="s">
-        <v>676</v>
-      </c>
-      <c r="H105" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>687</v>
-      </c>
-      <c r="B106" t="s">
-        <v>677</v>
-      </c>
-      <c r="H106" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>688</v>
-      </c>
-      <c r="B107" t="s">
-        <v>678</v>
-      </c>
-      <c r="H107" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>689</v>
-      </c>
-      <c r="B108" t="s">
-        <v>679</v>
-      </c>
-      <c r="H108" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>690</v>
-      </c>
-      <c r="B109" t="s">
-        <v>680</v>
-      </c>
-      <c r="H109" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>691</v>
-      </c>
-      <c r="B110" t="s">
-        <v>681</v>
-      </c>
-      <c r="H110" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>692</v>
-      </c>
-      <c r="B111" t="s">
-        <v>682</v>
-      </c>
-      <c r="H111" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>183</v>
-      </c>
-      <c r="B112" t="s">
-        <v>184</v>
-      </c>
-      <c r="H112" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>594</v>
-      </c>
-      <c r="B113" t="s">
-        <v>185</v>
-      </c>
-      <c r="H113" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>595</v>
-      </c>
-      <c r="B114" t="s">
-        <v>186</v>
-      </c>
-      <c r="H114" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>596</v>
-      </c>
-      <c r="B115" t="s">
-        <v>188</v>
-      </c>
-      <c r="H115" t="s">
-        <v>228</v>
-      </c>
-      <c r="J115" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>597</v>
-      </c>
-      <c r="B116" t="s">
-        <v>187</v>
-      </c>
-      <c r="H116" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>598</v>
-      </c>
-      <c r="B117" t="s">
-        <v>189</v>
-      </c>
-      <c r="H117" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>599</v>
-      </c>
-      <c r="B118" t="s">
-        <v>190</v>
-      </c>
-      <c r="H118" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>600</v>
-      </c>
-      <c r="B119" t="s">
-        <v>191</v>
-      </c>
-      <c r="H119" t="s">
-        <v>228</v>
-      </c>
-      <c r="J119" t="s">
-        <v>229</v>
-      </c>
-      <c r="K119" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>601</v>
-      </c>
-      <c r="B120" t="s">
-        <v>192</v>
-      </c>
-      <c r="H120" t="s">
-        <v>228</v>
-      </c>
-      <c r="J120" t="s">
-        <v>231</v>
-      </c>
-      <c r="K120" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>602</v>
-      </c>
-      <c r="B121" t="s">
-        <v>193</v>
-      </c>
-      <c r="H121" t="s">
-        <v>228</v>
-      </c>
-      <c r="J121" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>603</v>
-      </c>
-      <c r="B122" t="s">
-        <v>194</v>
-      </c>
-      <c r="H122" t="s">
-        <v>228</v>
-      </c>
-      <c r="J122" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>604</v>
-      </c>
-      <c r="B123" t="s">
-        <v>195</v>
-      </c>
-      <c r="H123" t="s">
-        <v>228</v>
-      </c>
-      <c r="J123" t="s">
-        <v>234</v>
-      </c>
-      <c r="K123" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>605</v>
-      </c>
-      <c r="B124" t="s">
-        <v>196</v>
-      </c>
-      <c r="H124" t="s">
-        <v>228</v>
-      </c>
-      <c r="J124" t="s">
-        <v>235</v>
-      </c>
-      <c r="K124" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>606</v>
-      </c>
-      <c r="B125" t="s">
-        <v>199</v>
-      </c>
-      <c r="H125" t="s">
-        <v>228</v>
-      </c>
-      <c r="J125" t="s">
-        <v>236</v>
-      </c>
-      <c r="K125" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>521</v>
-      </c>
-      <c r="B126" t="s">
-        <v>425</v>
-      </c>
-      <c r="H126" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>525</v>
-      </c>
-      <c r="B127" t="s">
-        <v>429</v>
-      </c>
-      <c r="E127" t="s">
-        <v>76</v>
-      </c>
-      <c r="H127" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>526</v>
-      </c>
-      <c r="B128" t="s">
-        <v>430</v>
-      </c>
-      <c r="E128" t="s">
-        <v>78</v>
-      </c>
-      <c r="H128" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>527</v>
-      </c>
-      <c r="B129" t="s">
-        <v>431</v>
-      </c>
-      <c r="E129" t="s">
-        <v>77</v>
-      </c>
-      <c r="H129" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>701</v>
-      </c>
-      <c r="B130" t="s">
-        <v>693</v>
-      </c>
-      <c r="H130" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>702</v>
-      </c>
-      <c r="B131" t="s">
-        <v>694</v>
-      </c>
-      <c r="H131" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>703</v>
-      </c>
-      <c r="B132" t="s">
-        <v>695</v>
-      </c>
-      <c r="H132" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>704</v>
-      </c>
-      <c r="B133" t="s">
-        <v>696</v>
-      </c>
-      <c r="H133" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>705</v>
-      </c>
-      <c r="B134" t="s">
-        <v>697</v>
-      </c>
-      <c r="H134" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>706</v>
-      </c>
-      <c r="B135" t="s">
-        <v>698</v>
-      </c>
-      <c r="H135" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>707</v>
-      </c>
-      <c r="B136" t="s">
-        <v>699</v>
-      </c>
-      <c r="H136" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>708</v>
-      </c>
-      <c r="B137" t="s">
-        <v>700</v>
-      </c>
-      <c r="H137" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>564</v>
-      </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>565</v>
+        <v>474</v>
       </c>
       <c r="B139" t="s">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="C139">
         <v>3</v>
       </c>
       <c r="H139" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>566</v>
+        <v>475</v>
       </c>
       <c r="B140" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="C140">
         <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>567</v>
+        <v>476</v>
       </c>
       <c r="B141" t="s">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="C141">
         <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>568</v>
+        <v>477</v>
       </c>
       <c r="B142" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="C142">
         <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>569</v>
+        <v>478</v>
       </c>
       <c r="B143" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="C143">
         <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>351</v>
+        <v>759</v>
       </c>
       <c r="K143" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>570</v>
+        <v>479</v>
       </c>
       <c r="B144" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="C144">
         <v>10</v>
       </c>
       <c r="H144" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>571</v>
+        <v>480</v>
       </c>
       <c r="B145" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="C145">
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>572</v>
+        <v>481</v>
       </c>
       <c r="B146" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="C146">
         <v>17</v>
       </c>
       <c r="H146" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>573</v>
+        <v>482</v>
       </c>
       <c r="B147" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="C147">
         <v>17</v>
       </c>
       <c r="H147" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="B148" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="C148">
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>575</v>
+        <v>484</v>
       </c>
       <c r="B149" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="C149">
         <v>23</v>
       </c>
       <c r="H149" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>576</v>
+        <v>485</v>
       </c>
       <c r="B150" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="C150">
         <v>24</v>
       </c>
       <c r="H150" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>577</v>
+        <v>486</v>
       </c>
       <c r="B151" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="C151">
         <v>24</v>
       </c>
       <c r="H151" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>578</v>
+        <v>487</v>
       </c>
       <c r="B152" t="s">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="C152">
         <v>24</v>
       </c>
       <c r="H152" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I152">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>579</v>
+        <v>488</v>
       </c>
       <c r="B153" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="C153">
         <v>39</v>
       </c>
       <c r="H153" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>580</v>
+        <v>489</v>
       </c>
       <c r="B154" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="C154">
         <v>23</v>
       </c>
       <c r="H154" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>581</v>
+        <v>490</v>
       </c>
       <c r="B155" t="s">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="C155">
         <v>27</v>
       </c>
       <c r="H155" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>582</v>
+        <v>491</v>
       </c>
       <c r="B156" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="C156">
         <v>33</v>
       </c>
       <c r="H156" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>583</v>
+        <v>492</v>
       </c>
       <c r="B157" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="C157">
         <v>33</v>
       </c>
       <c r="H157" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>584</v>
+        <v>493</v>
       </c>
       <c r="B158" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="C158">
         <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>585</v>
+        <v>494</v>
       </c>
       <c r="B159" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="C159">
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>713</v>
+        <v>622</v>
       </c>
       <c r="B160" t="s">
-        <v>709</v>
+        <v>618</v>
       </c>
       <c r="H160" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>714</v>
+        <v>623</v>
       </c>
       <c r="B161" t="s">
-        <v>710</v>
+        <v>619</v>
       </c>
       <c r="H161" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>715</v>
+        <v>624</v>
       </c>
       <c r="B162" t="s">
-        <v>711</v>
+        <v>620</v>
       </c>
       <c r="H162" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>716</v>
+        <v>625</v>
       </c>
       <c r="B163" t="s">
-        <v>712</v>
+        <v>621</v>
       </c>
       <c r="H163" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
       <c r="B164" t="s">
-        <v>393</v>
+        <v>302</v>
       </c>
       <c r="H164" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>485</v>
+        <v>394</v>
       </c>
       <c r="B165" t="s">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="H165" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>486</v>
+        <v>395</v>
       </c>
       <c r="B166" t="s">
-        <v>395</v>
+        <v>304</v>
       </c>
       <c r="H166" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>487</v>
+        <v>396</v>
       </c>
       <c r="B167" t="s">
-        <v>396</v>
+        <v>305</v>
       </c>
       <c r="H167" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>488</v>
+        <v>397</v>
       </c>
       <c r="B168" t="s">
-        <v>397</v>
+        <v>306</v>
       </c>
       <c r="H168" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
       <c r="B169" t="s">
-        <v>398</v>
+        <v>307</v>
       </c>
       <c r="H169" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>490</v>
+        <v>399</v>
       </c>
       <c r="B170" t="s">
-        <v>399</v>
+        <v>308</v>
       </c>
       <c r="H170" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>491</v>
+        <v>400</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="H171" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
       <c r="B172" t="s">
-        <v>409</v>
+        <v>318</v>
       </c>
       <c r="H172" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="B173" t="s">
-        <v>411</v>
+        <v>320</v>
       </c>
       <c r="H173" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>508</v>
+        <v>417</v>
       </c>
       <c r="B174" t="s">
-        <v>412</v>
+        <v>321</v>
       </c>
       <c r="H174" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>512</v>
+        <v>421</v>
       </c>
       <c r="B175" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
       <c r="H175" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>425</v>
+      </c>
+      <c r="B176" t="s">
+        <v>329</v>
+      </c>
+      <c r="H176" t="s">
+        <v>269</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>427</v>
+      </c>
+      <c r="B177" t="s">
+        <v>331</v>
+      </c>
+      <c r="H177" t="s">
+        <v>269</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>433</v>
+      </c>
+      <c r="B178" t="s">
+        <v>337</v>
+      </c>
+      <c r="H178" t="s">
+        <v>269</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>443</v>
+      </c>
+      <c r="B179" t="s">
+        <v>346</v>
+      </c>
+      <c r="H179" t="s">
+        <v>269</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>636</v>
+      </c>
+      <c r="B180" t="s">
+        <v>626</v>
+      </c>
+      <c r="H180" t="s">
+        <v>269</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>637</v>
+      </c>
+      <c r="B181" t="s">
+        <v>627</v>
+      </c>
+      <c r="H181" t="s">
+        <v>269</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>638</v>
+      </c>
+      <c r="B182" t="s">
+        <v>628</v>
+      </c>
+      <c r="H182" t="s">
+        <v>269</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>639</v>
+      </c>
+      <c r="B183" t="s">
+        <v>629</v>
+      </c>
+      <c r="H183" t="s">
+        <v>269</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>640</v>
+      </c>
+      <c r="B184" t="s">
+        <v>630</v>
+      </c>
+      <c r="H184" t="s">
+        <v>269</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>641</v>
+      </c>
+      <c r="B185" t="s">
+        <v>631</v>
+      </c>
+      <c r="H185" t="s">
+        <v>269</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>642</v>
+      </c>
+      <c r="B186" t="s">
+        <v>632</v>
+      </c>
+      <c r="H186" t="s">
+        <v>269</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>643</v>
+      </c>
+      <c r="B187" t="s">
+        <v>633</v>
+      </c>
+      <c r="H187" t="s">
+        <v>269</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>644</v>
+      </c>
+      <c r="B188" t="s">
+        <v>634</v>
+      </c>
+      <c r="H188" t="s">
+        <v>269</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>645</v>
+      </c>
+      <c r="B189" t="s">
+        <v>635</v>
+      </c>
+      <c r="H189" t="s">
+        <v>269</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>516</v>
       </c>
-      <c r="B176" t="s">
-        <v>420</v>
-      </c>
-      <c r="H176" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="B190" t="s">
+        <v>275</v>
+      </c>
+      <c r="H190" t="s">
+        <v>268</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>517</v>
+      </c>
+      <c r="B191" t="s">
+        <v>276</v>
+      </c>
+      <c r="H191" t="s">
+        <v>268</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>518</v>
       </c>
-      <c r="B177" t="s">
-        <v>422</v>
-      </c>
-      <c r="H177" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="B192" t="s">
+        <v>277</v>
+      </c>
+      <c r="H192" t="s">
+        <v>268</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>519</v>
+      </c>
+      <c r="B193" t="s">
+        <v>278</v>
+      </c>
+      <c r="H193" t="s">
+        <v>268</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>520</v>
+      </c>
+      <c r="B194" t="s">
+        <v>279</v>
+      </c>
+      <c r="H194" t="s">
+        <v>268</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>521</v>
+      </c>
+      <c r="B195" t="s">
+        <v>280</v>
+      </c>
+      <c r="H195" t="s">
+        <v>268</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>522</v>
+      </c>
+      <c r="B196" t="s">
+        <v>281</v>
+      </c>
+      <c r="H196" t="s">
+        <v>268</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>523</v>
+      </c>
+      <c r="B197" t="s">
+        <v>169</v>
+      </c>
+      <c r="H197" t="s">
+        <v>268</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>524</v>
       </c>
-      <c r="B178" t="s">
-        <v>428</v>
-      </c>
-      <c r="H178" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>534</v>
-      </c>
-      <c r="B179" t="s">
-        <v>437</v>
-      </c>
-      <c r="H179" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>727</v>
-      </c>
-      <c r="B180" t="s">
-        <v>717</v>
-      </c>
-      <c r="H180" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>728</v>
-      </c>
-      <c r="B181" t="s">
-        <v>718</v>
-      </c>
-      <c r="H181" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>729</v>
-      </c>
-      <c r="B182" t="s">
-        <v>719</v>
-      </c>
-      <c r="H182" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>730</v>
-      </c>
-      <c r="B183" t="s">
-        <v>720</v>
-      </c>
-      <c r="H183" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>731</v>
-      </c>
-      <c r="B184" t="s">
-        <v>721</v>
-      </c>
-      <c r="H184" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>732</v>
-      </c>
-      <c r="B185" t="s">
-        <v>722</v>
-      </c>
-      <c r="H185" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>733</v>
-      </c>
-      <c r="B186" t="s">
-        <v>723</v>
-      </c>
-      <c r="H186" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>734</v>
-      </c>
-      <c r="B187" t="s">
-        <v>724</v>
-      </c>
-      <c r="H187" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>735</v>
-      </c>
-      <c r="B188" t="s">
-        <v>725</v>
-      </c>
-      <c r="H188" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>736</v>
-      </c>
-      <c r="B189" t="s">
-        <v>726</v>
-      </c>
-      <c r="H189" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>607</v>
-      </c>
-      <c r="B190" t="s">
-        <v>366</v>
-      </c>
-      <c r="H190" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>608</v>
-      </c>
-      <c r="B191" t="s">
-        <v>367</v>
-      </c>
-      <c r="H191" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>609</v>
-      </c>
-      <c r="B192" t="s">
-        <v>368</v>
-      </c>
-      <c r="H192" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>610</v>
-      </c>
-      <c r="B193" t="s">
-        <v>369</v>
-      </c>
-      <c r="H193" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>611</v>
-      </c>
-      <c r="B194" t="s">
-        <v>370</v>
-      </c>
-      <c r="H194" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>612</v>
-      </c>
-      <c r="B195" t="s">
-        <v>371</v>
-      </c>
-      <c r="H195" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>613</v>
-      </c>
-      <c r="B196" t="s">
-        <v>372</v>
-      </c>
-      <c r="H196" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>614</v>
-      </c>
-      <c r="B197" t="s">
-        <v>238</v>
-      </c>
-      <c r="H197" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>615</v>
-      </c>
       <c r="B198" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="H198" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>616</v>
+        <v>525</v>
       </c>
       <c r="B199" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="H199" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>617</v>
+        <v>526</v>
       </c>
       <c r="B200" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="H200" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>618</v>
+        <v>527</v>
       </c>
       <c r="B201" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="H201" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>619</v>
+        <v>528</v>
       </c>
       <c r="B202" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="H202" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>620</v>
+        <v>529</v>
       </c>
       <c r="B203" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="H203" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>520</v>
+        <v>429</v>
       </c>
       <c r="B204" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="H204" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>532</v>
+        <v>441</v>
       </c>
       <c r="B205" t="s">
-        <v>435</v>
+        <v>344</v>
       </c>
       <c r="H205" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>749</v>
+        <v>658</v>
       </c>
       <c r="B206" t="s">
-        <v>739</v>
+        <v>648</v>
       </c>
       <c r="H206" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>750</v>
+        <v>659</v>
       </c>
       <c r="B207" t="s">
-        <v>740</v>
+        <v>649</v>
       </c>
       <c r="H207" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>751</v>
+        <v>660</v>
       </c>
       <c r="B208" t="s">
-        <v>741</v>
+        <v>650</v>
       </c>
       <c r="H208" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>752</v>
+        <v>661</v>
       </c>
       <c r="B209" t="s">
-        <v>742</v>
+        <v>651</v>
       </c>
       <c r="H209" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>753</v>
+        <v>662</v>
       </c>
       <c r="B210" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="H210" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>754</v>
+        <v>663</v>
       </c>
       <c r="B211" t="s">
-        <v>744</v>
+        <v>653</v>
       </c>
       <c r="H211" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>755</v>
+        <v>664</v>
       </c>
       <c r="B212" t="s">
-        <v>745</v>
+        <v>654</v>
       </c>
       <c r="H212" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>756</v>
+        <v>665</v>
       </c>
       <c r="B213" t="s">
-        <v>746</v>
+        <v>655</v>
       </c>
       <c r="H213" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>757</v>
+        <v>666</v>
       </c>
       <c r="B214" t="s">
-        <v>747</v>
+        <v>656</v>
       </c>
       <c r="H214" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>758</v>
+        <v>667</v>
       </c>
       <c r="B215" t="s">
-        <v>748</v>
+        <v>657</v>
       </c>
       <c r="H215" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>539</v>
+        <v>448</v>
       </c>
       <c r="B216" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="H216" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>540</v>
+        <v>449</v>
       </c>
       <c r="B217" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="H217" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>541</v>
+        <v>450</v>
       </c>
       <c r="B218" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="H218" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>542</v>
+        <v>451</v>
       </c>
       <c r="B219" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="H219" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>543</v>
+        <v>452</v>
       </c>
       <c r="B220" t="s">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="H220" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>544</v>
+        <v>453</v>
       </c>
       <c r="B221" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="H221" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>545</v>
+        <v>454</v>
       </c>
       <c r="B222" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="H222" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>546</v>
+        <v>455</v>
       </c>
       <c r="B223" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="H223" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>547</v>
+        <v>456</v>
       </c>
       <c r="B224" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="H224" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>548</v>
+        <v>457</v>
       </c>
       <c r="B225" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="H225" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>549</v>
+        <v>458</v>
       </c>
       <c r="B226" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="H226" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>550</v>
+        <v>459</v>
       </c>
       <c r="B227" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="H227" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>551</v>
+        <v>460</v>
       </c>
       <c r="B228" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="H228" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>552</v>
+        <v>461</v>
       </c>
       <c r="B229" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="H229" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="B230" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="H230" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>554</v>
+        <v>463</v>
       </c>
       <c r="B231" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="H231" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>555</v>
+        <v>464</v>
       </c>
       <c r="B232" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="H232" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>556</v>
+        <v>465</v>
       </c>
       <c r="B233" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="H233" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>557</v>
+        <v>466</v>
       </c>
       <c r="B234" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="H234" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>558</v>
+        <v>467</v>
       </c>
       <c r="B235" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="H235" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>559</v>
+        <v>468</v>
       </c>
       <c r="B236" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="H236" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>560</v>
+        <v>469</v>
       </c>
       <c r="B237" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="H237" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="B238" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="H238" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>562</v>
+        <v>471</v>
       </c>
       <c r="B239" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="H239" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>563</v>
+        <v>472</v>
       </c>
       <c r="B240" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="H240" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>738</v>
+        <v>647</v>
       </c>
       <c r="B241" t="s">
-        <v>737</v>
+        <v>646</v>
       </c>
       <c r="H241" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -6003,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G242" t="s">
         <v>39</v>
@@ -6015,15 +6688,15 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
       <c r="B243" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -6032,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="F243" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="G243" t="s">
         <v>39</v>
@@ -6044,15 +6717,15 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -6061,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="F244" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G244" t="s">
         <v>39</v>
@@ -6073,15 +6746,18 @@
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+      <c r="K244" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C245">
         <v>5</v>
@@ -6090,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="F245" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="G245" t="s">
         <v>39</v>
@@ -6102,15 +6778,15 @@
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
       <c r="B246" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C246">
         <v>10</v>
@@ -6119,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G246" t="s">
         <v>39</v>
@@ -6131,15 +6807,15 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>11</v>
       </c>
       <c r="B247" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C247">
         <v>10</v>
@@ -6148,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="G247" t="s">
         <v>39</v>
@@ -6160,15 +6836,15 @@
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C248">
         <v>11</v>
@@ -6177,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="G248" t="s">
         <v>40</v>
@@ -6189,15 +6865,15 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>13</v>
       </c>
       <c r="B249" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C249">
         <v>11</v>
@@ -6206,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="F249" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G249" t="s">
         <v>41</v>
@@ -6218,15 +6894,15 @@
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>14</v>
       </c>
       <c r="B250" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C250">
         <v>15</v>
@@ -6235,7 +6911,7 @@
         <v>4</v>
       </c>
       <c r="F250" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="G250" t="s">
         <v>41</v>
@@ -6247,27 +6923,27 @@
         <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>15</v>
       </c>
       <c r="B251" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C251">
         <v>15</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F251" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="G251" t="s">
         <v>39</v>
@@ -6279,27 +6955,27 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>16</v>
       </c>
       <c r="B252" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C252">
         <v>19</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F252" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G252" t="s">
         <v>39</v>
@@ -6311,27 +6987,27 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>17</v>
       </c>
       <c r="B253" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C253">
         <v>20</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E253" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F253" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -6343,27 +7019,27 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>18</v>
       </c>
       <c r="B254" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C254">
         <v>20</v>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="G254" t="s">
         <v>39</v>
@@ -6375,27 +7051,27 @@
         <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>19</v>
       </c>
       <c r="B255" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C255">
         <v>22</v>
       </c>
       <c r="D255">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E255" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F255" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="G255" t="s">
         <v>39</v>
@@ -6407,27 +7083,27 @@
         <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>20</v>
       </c>
       <c r="B256" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C256">
         <v>22</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F256" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="G256" t="s">
         <v>39</v>
@@ -6439,15 +7115,15 @@
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>21</v>
       </c>
       <c r="B257" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C257">
         <v>22</v>
@@ -6456,10 +7132,10 @@
         <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G257" t="s">
         <v>39</v>
@@ -6471,15 +7147,15 @@
         <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>22</v>
       </c>
       <c r="B258" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C258">
         <v>28</v>
@@ -6488,10 +7164,10 @@
         <v>4</v>
       </c>
       <c r="E258" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F258" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G258" t="s">
         <v>39</v>
@@ -6503,15 +7179,15 @@
         <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>23</v>
       </c>
       <c r="B259" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C259">
         <v>30</v>
@@ -6520,10 +7196,10 @@
         <v>4</v>
       </c>
       <c r="E259" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F259" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="G259" t="s">
         <v>39</v>
@@ -6535,27 +7211,27 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>24</v>
       </c>
       <c r="B260" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C260">
         <v>35</v>
       </c>
       <c r="D260">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E260" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F260" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="G260" t="s">
         <v>39</v>
@@ -6567,27 +7243,27 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>25</v>
       </c>
       <c r="B261" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C261">
         <v>15</v>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F261" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="G261" t="s">
         <v>39</v>
@@ -6599,27 +7275,30 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+      <c r="K261" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>26</v>
       </c>
       <c r="B262" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C262">
         <v>15</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E262" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F262" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="G262" t="s">
         <v>39</v>
@@ -6631,15 +7310,15 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>27</v>
       </c>
       <c r="B263" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C263">
         <v>15</v>
@@ -6648,10 +7327,10 @@
         <v>4</v>
       </c>
       <c r="E263" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F263" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="G263" t="s">
         <v>39</v>
@@ -6663,15 +7342,15 @@
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>28</v>
       </c>
       <c r="B264" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C264">
         <v>15</v>
@@ -6680,10 +7359,10 @@
         <v>4</v>
       </c>
       <c r="E264" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F264" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="G264" t="s">
         <v>39</v>
@@ -6695,27 +7374,30 @@
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+        <v>738</v>
+      </c>
+      <c r="K264" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>29</v>
       </c>
       <c r="B265" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C265">
         <v>35</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E265" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F265" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G265" t="s">
         <v>39</v>
@@ -6727,27 +7409,27 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>30</v>
       </c>
       <c r="B266" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C266">
         <v>15</v>
       </c>
       <c r="D266">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F266" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="G266" t="s">
         <v>39</v>
@@ -6759,27 +7441,30 @@
         <v>2</v>
       </c>
       <c r="J266" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+      <c r="K266" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>31</v>
       </c>
       <c r="B267" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C267">
         <v>35</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F267" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="G267" t="s">
         <v>39</v>
@@ -6791,15 +7476,18 @@
         <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+      <c r="K267" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>32</v>
       </c>
       <c r="B268" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C268">
         <v>35</v>
@@ -6808,10 +7496,10 @@
         <v>4</v>
       </c>
       <c r="E268" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F268" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="G268" t="s">
         <v>39</v>
@@ -6823,15 +7511,18 @@
         <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+        <v>742</v>
+      </c>
+      <c r="K268" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>33</v>
       </c>
       <c r="B269" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C269">
         <v>35</v>
@@ -6840,10 +7531,10 @@
         <v>4</v>
       </c>
       <c r="E269" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F269" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="G269" t="s">
         <v>39</v>
@@ -6855,27 +7546,30 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+      <c r="K269" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>34</v>
       </c>
       <c r="B270" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C270">
         <v>35</v>
       </c>
       <c r="D270">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E270" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F270" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="G270" t="s">
         <v>39</v>
@@ -6887,15 +7581,18 @@
         <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+      <c r="K270" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>589</v>
+        <v>498</v>
       </c>
       <c r="B271" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="H271" t="s">
         <v>42</v>
@@ -6904,12 +7601,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>591</v>
+        <v>500</v>
       </c>
       <c r="B272" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="H272" t="s">
         <v>42</v>
@@ -6918,12 +7615,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>592</v>
+        <v>501</v>
       </c>
       <c r="B273" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="H273" t="s">
         <v>42</v>
@@ -6932,12 +7629,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>593</v>
+        <v>502</v>
       </c>
       <c r="B274" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="H274" t="s">
         <v>42</v>
@@ -6946,362 +7643,455 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>531</v>
+        <v>440</v>
       </c>
       <c r="B275" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="E275" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H275" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>535</v>
+        <v>444</v>
       </c>
       <c r="B276" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="E276" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H276" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>536</v>
+        <v>445</v>
       </c>
       <c r="B277" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="E277" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H277" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>537</v>
+        <v>446</v>
       </c>
       <c r="B278" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="E278" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H278" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>538</v>
+        <v>447</v>
       </c>
       <c r="B279" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="H279" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>439</v>
+        <v>348</v>
       </c>
       <c r="B280" t="s">
+        <v>282</v>
+      </c>
+      <c r="H280" t="s">
+        <v>242</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>349</v>
+      </c>
+      <c r="B281" t="s">
+        <v>283</v>
+      </c>
+      <c r="H281" t="s">
+        <v>242</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>350</v>
+      </c>
+      <c r="B282" t="s">
+        <v>284</v>
+      </c>
+      <c r="H282" t="s">
+        <v>242</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>351</v>
+      </c>
+      <c r="B283" t="s">
+        <v>285</v>
+      </c>
+      <c r="H283" t="s">
+        <v>242</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>352</v>
+      </c>
+      <c r="B284" t="s">
+        <v>286</v>
+      </c>
+      <c r="H284" t="s">
+        <v>242</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>353</v>
+      </c>
+      <c r="B285" t="s">
+        <v>287</v>
+      </c>
+      <c r="H285" t="s">
+        <v>242</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>354</v>
+      </c>
+      <c r="B286" t="s">
+        <v>288</v>
+      </c>
+      <c r="H286" t="s">
+        <v>242</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>355</v>
+      </c>
+      <c r="B287" t="s">
+        <v>176</v>
+      </c>
+      <c r="H287" t="s">
+        <v>242</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>356</v>
+      </c>
+      <c r="B288" t="s">
+        <v>234</v>
+      </c>
+      <c r="H288" t="s">
+        <v>242</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>357</v>
+      </c>
+      <c r="B289" t="s">
+        <v>235</v>
+      </c>
+      <c r="H289" t="s">
+        <v>242</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>358</v>
+      </c>
+      <c r="B290" t="s">
+        <v>236</v>
+      </c>
+      <c r="H290" t="s">
+        <v>242</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>359</v>
+      </c>
+      <c r="B291" t="s">
+        <v>237</v>
+      </c>
+      <c r="H291" t="s">
+        <v>242</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>360</v>
+      </c>
+      <c r="B292" t="s">
+        <v>238</v>
+      </c>
+      <c r="H292" t="s">
+        <v>242</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>361</v>
+      </c>
+      <c r="B293" t="s">
+        <v>218</v>
+      </c>
+      <c r="H293" t="s">
+        <v>242</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>362</v>
+      </c>
+      <c r="B294" t="s">
+        <v>239</v>
+      </c>
+      <c r="H294" t="s">
+        <v>242</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>363</v>
+      </c>
+      <c r="B295" t="s">
+        <v>219</v>
+      </c>
+      <c r="H295" t="s">
+        <v>242</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>364</v>
+      </c>
+      <c r="B296" t="s">
+        <v>220</v>
+      </c>
+      <c r="H296" t="s">
+        <v>242</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>365</v>
+      </c>
+      <c r="B297" t="s">
+        <v>221</v>
+      </c>
+      <c r="H297" t="s">
+        <v>242</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>366</v>
+      </c>
+      <c r="B298" t="s">
+        <v>222</v>
+      </c>
+      <c r="H298" t="s">
+        <v>242</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>367</v>
+      </c>
+      <c r="B299" t="s">
+        <v>240</v>
+      </c>
+      <c r="H299" t="s">
+        <v>242</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>368</v>
+      </c>
+      <c r="B300" t="s">
+        <v>223</v>
+      </c>
+      <c r="H300" t="s">
+        <v>242</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>369</v>
+      </c>
+      <c r="B301" t="s">
+        <v>224</v>
+      </c>
+      <c r="H301" t="s">
+        <v>242</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>370</v>
+      </c>
+      <c r="B302" t="s">
+        <v>241</v>
+      </c>
+      <c r="H302" t="s">
+        <v>242</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>371</v>
+      </c>
+      <c r="B303" t="s">
+        <v>225</v>
+      </c>
+      <c r="H303" t="s">
+        <v>242</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>372</v>
+      </c>
+      <c r="B304" t="s">
+        <v>226</v>
+      </c>
+      <c r="H304" t="s">
+        <v>242</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>373</v>
       </c>
-      <c r="H280" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>440</v>
-      </c>
-      <c r="B281" t="s">
-        <v>374</v>
-      </c>
-      <c r="H281" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>441</v>
-      </c>
-      <c r="B282" t="s">
-        <v>375</v>
-      </c>
-      <c r="H282" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>442</v>
-      </c>
-      <c r="B283" t="s">
-        <v>376</v>
-      </c>
-      <c r="H283" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>443</v>
-      </c>
-      <c r="B284" t="s">
-        <v>377</v>
-      </c>
-      <c r="H284" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>444</v>
-      </c>
-      <c r="B285" t="s">
-        <v>378</v>
-      </c>
-      <c r="H285" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>445</v>
-      </c>
-      <c r="B286" t="s">
-        <v>379</v>
-      </c>
-      <c r="H286" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>446</v>
-      </c>
-      <c r="B287" t="s">
-        <v>245</v>
-      </c>
-      <c r="H287" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>447</v>
-      </c>
-      <c r="B288" t="s">
-        <v>303</v>
-      </c>
-      <c r="H288" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>448</v>
-      </c>
-      <c r="B289" t="s">
-        <v>304</v>
-      </c>
-      <c r="H289" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>449</v>
-      </c>
-      <c r="B290" t="s">
-        <v>305</v>
-      </c>
-      <c r="H290" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>450</v>
-      </c>
-      <c r="B291" t="s">
-        <v>306</v>
-      </c>
-      <c r="H291" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>451</v>
-      </c>
-      <c r="B292" t="s">
-        <v>307</v>
-      </c>
-      <c r="H292" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>452</v>
-      </c>
-      <c r="B293" t="s">
-        <v>287</v>
-      </c>
-      <c r="H293" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>453</v>
-      </c>
-      <c r="B294" t="s">
-        <v>308</v>
-      </c>
-      <c r="H294" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>454</v>
-      </c>
-      <c r="B295" t="s">
-        <v>288</v>
-      </c>
-      <c r="H295" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>455</v>
-      </c>
-      <c r="B296" t="s">
-        <v>289</v>
-      </c>
-      <c r="H296" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>456</v>
-      </c>
-      <c r="B297" t="s">
-        <v>290</v>
-      </c>
-      <c r="H297" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>457</v>
-      </c>
-      <c r="B298" t="s">
-        <v>291</v>
-      </c>
-      <c r="H298" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>458</v>
-      </c>
-      <c r="B299" t="s">
-        <v>309</v>
-      </c>
-      <c r="H299" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>459</v>
-      </c>
-      <c r="B300" t="s">
-        <v>292</v>
-      </c>
-      <c r="H300" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>460</v>
-      </c>
-      <c r="B301" t="s">
-        <v>293</v>
-      </c>
-      <c r="H301" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>461</v>
-      </c>
-      <c r="B302" t="s">
-        <v>310</v>
-      </c>
-      <c r="H302" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>462</v>
-      </c>
-      <c r="B303" t="s">
-        <v>294</v>
-      </c>
-      <c r="H303" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>463</v>
-      </c>
-      <c r="B304" t="s">
-        <v>295</v>
-      </c>
-      <c r="H304" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>464</v>
-      </c>
       <c r="B305" t="s">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="H305" t="s">
-        <v>311</v>
+        <v>242</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M4" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M236">
+  <autoFilter ref="A4:L305" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L236">
       <sortCondition ref="H4"/>
     </sortState>
   </autoFilter>

--- a/configs/Item.xlsx
+++ b/configs/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2C1CCD-AA81-43C7-885B-701F2B21CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA06104-9000-471C-AA52-853247C89AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{32817E20-F0A4-463C-B290-2589502B59A4}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{32817E20-F0A4-463C-B290-2589502B59A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="892">
   <si>
     <t>id</t>
   </si>
@@ -2515,9 +2515,6 @@
     <t>xdmg1,2:spi1,0.5:mhit1,0</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>Enum:ItemId</t>
   </si>
   <si>
@@ -2537,6 +2534,189 @@
   </si>
   <si>
     <t>最大品质</t>
+  </si>
+  <si>
+    <t>xlr1,0</t>
+  </si>
+  <si>
+    <t>hlr1,0</t>
+  </si>
+  <si>
+    <t>tlr1,0</t>
+  </si>
+  <si>
+    <t>flr1,0</t>
+  </si>
+  <si>
+    <t>plr1,0</t>
+  </si>
+  <si>
+    <t>hdmg1,0</t>
+  </si>
+  <si>
+    <t>tdmg1,0</t>
+  </si>
+  <si>
+    <t>fdmg1,0</t>
+  </si>
+  <si>
+    <t>pdmg1,0</t>
+  </si>
+  <si>
+    <t>hdr1,0</t>
+  </si>
+  <si>
+    <t>tdr1,0</t>
+  </si>
+  <si>
+    <t>fdr1,0</t>
+  </si>
+  <si>
+    <t>pdr1,0</t>
+  </si>
+  <si>
+    <t>xed1,0</t>
+  </si>
+  <si>
+    <t>hed1,0</t>
+  </si>
+  <si>
+    <t>ted1,0</t>
+  </si>
+  <si>
+    <t>fed1,0</t>
+  </si>
+  <si>
+    <t>ped1,0</t>
+  </si>
+  <si>
+    <t>xres1,0</t>
+  </si>
+  <si>
+    <t>hres1,0</t>
+  </si>
+  <si>
+    <t>tres1,0</t>
+  </si>
+  <si>
+    <t>fres1,0</t>
+  </si>
+  <si>
+    <t>pres1,0</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Mote_Nether</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Mote_Life01</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Mote_Water01</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Mote_Fire01</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Mote_Earth01</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Primal_Nether</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Primal_Life</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Primal_Water</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Primal_Fire</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Primal_Earth</t>
+  </si>
+  <si>
+    <t>INV_ELEMENTAL_CRYSTAL_EARTH</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Crystal_Life</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Crystal_Water</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Crystal_Fire</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Crystal_Air</t>
+  </si>
+  <si>
+    <t>INV_ELEMENTAL_ETERNAL_EARTH</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Eternal_Life</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Eternal_Water</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Eternal_Fire</t>
+  </si>
+  <si>
+    <t>INV_Elemental_Eternal_Air</t>
+  </si>
+  <si>
+    <t>INV_Jewelcrafting_Gem_15</t>
+  </si>
+  <si>
+    <t>INV_Jewelcrafting_Gem_13</t>
+  </si>
+  <si>
+    <t>INV_Jewelcrafting_Gem_17</t>
+  </si>
+  <si>
+    <t>INV_Jewelcrafting_Gem_16</t>
+  </si>
+  <si>
+    <t>INV_Jewelcrafting_Gem_14</t>
+  </si>
+  <si>
+    <t>INV_Shirt_14</t>
+  </si>
+  <si>
+    <t>INV_Chest_Leather_09</t>
+  </si>
+  <si>
+    <t>INV_Chest_Leather_10</t>
+  </si>
+  <si>
+    <t>INV_Chest_Plate07</t>
+  </si>
+  <si>
+    <t>INV_Chest_Plate01</t>
+  </si>
+  <si>
+    <t>INV_Chest_Plate02</t>
+  </si>
+  <si>
+    <t>INV_Chest_Plate05</t>
+  </si>
+  <si>
+    <t>INV_Chest_Plate10</t>
+  </si>
+  <si>
+    <t>INV_Jewelry_Necklace_21</t>
+  </si>
+  <si>
+    <t>INV_Jewelry_Ring_02</t>
+  </si>
+  <si>
+    <t>INV_Misc_Bone_06</t>
+  </si>
+  <si>
+    <t>INV_Misc_Bone_07</t>
+  </si>
+  <si>
+    <t>INV_Misc_Bone_ElfSkull_01</t>
   </si>
 </sst>
 </file>
@@ -2592,17 +2772,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2943,11 +3113,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+      <pane ySplit="4" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H335" sqref="H335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2959,7 +3130,7 @@
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" customWidth="1"/>
     <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
@@ -2984,7 +3155,7 @@
         <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1" t="s">
         <v>36</v>
@@ -3025,7 +3196,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -3095,7 +3266,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>57</v>
@@ -3134,7 +3305,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3153,9 +3324,8 @@
       <c r="G5" t="s">
         <v>115</v>
       </c>
-      <c r="H5" t="str">
-        <f>LEFT(B5,1)</f>
-        <v>布</v>
+      <c r="H5" t="s">
+        <v>879</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
@@ -3173,7 +3343,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3189,9 +3359,8 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" ref="H6:H69" si="0">LEFT(B6,1)</f>
-        <v>皮</v>
+      <c r="H6" t="s">
+        <v>880</v>
       </c>
       <c r="I6" t="s">
         <v>43</v>
@@ -3206,7 +3375,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -3222,9 +3391,8 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>轻</v>
+      <c r="H7" t="s">
+        <v>881</v>
       </c>
       <c r="I7" t="s">
         <v>43</v>
@@ -3242,7 +3410,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -3258,9 +3426,8 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>青</v>
+      <c r="H8" t="s">
+        <v>882</v>
       </c>
       <c r="I8" t="s">
         <v>43</v>
@@ -3275,7 +3442,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -3291,9 +3458,8 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+      <c r="H9" t="s">
+        <v>883</v>
       </c>
       <c r="I9" t="s">
         <v>43</v>
@@ -3311,7 +3477,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -3327,9 +3493,8 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>铁</v>
+      <c r="H10" t="s">
+        <v>884</v>
       </c>
       <c r="I10" t="s">
         <v>43</v>
@@ -3344,7 +3509,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -3360,9 +3525,8 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>钢</v>
+      <c r="H11" t="s">
+        <v>885</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
@@ -3377,7 +3541,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -3393,9 +3557,8 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>黑</v>
+      <c r="H12" t="s">
+        <v>886</v>
       </c>
       <c r="I12" t="s">
         <v>43</v>
@@ -3410,7 +3573,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3427,7 +3590,7 @@
         <v>45</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H6:H69" si="0">LEFT(B13,1)</f>
         <v>重</v>
       </c>
       <c r="I13" t="s">
@@ -3446,7 +3609,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3482,7 +3645,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3518,7 +3681,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3554,7 +3717,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -3590,7 +3753,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -3626,7 +3789,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -3662,7 +3825,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -3698,7 +3861,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -3734,7 +3897,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -3770,7 +3933,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>148</v>
       </c>
@@ -3806,7 +3969,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -3842,7 +4005,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>346</v>
       </c>
@@ -3869,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>534</v>
       </c>
@@ -3896,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>535</v>
       </c>
@@ -3923,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>536</v>
       </c>
@@ -3950,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -3977,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>538</v>
       </c>
@@ -4004,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>384</v>
       </c>
@@ -4034,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>385</v>
       </c>
@@ -4064,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -4094,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>387</v>
       </c>
@@ -4124,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>388</v>
       </c>
@@ -4154,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>389</v>
       </c>
@@ -4184,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>390</v>
       </c>
@@ -4214,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>391</v>
       </c>
@@ -4241,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>411</v>
       </c>
@@ -4268,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>414</v>
       </c>
@@ -4295,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>418</v>
       </c>
@@ -4322,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>419</v>
       </c>
@@ -4349,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>422</v>
       </c>
@@ -4379,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>436</v>
       </c>
@@ -4406,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>437</v>
       </c>
@@ -4433,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>550</v>
       </c>
@@ -4460,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>551</v>
       </c>
@@ -4487,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>552</v>
       </c>
@@ -4514,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>553</v>
       </c>
@@ -4541,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>554</v>
       </c>
@@ -4568,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>555</v>
       </c>
@@ -4595,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>556</v>
       </c>
@@ -4622,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>557</v>
       </c>
@@ -4649,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>558</v>
       </c>
@@ -4676,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>559</v>
       </c>
@@ -4703,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>560</v>
       </c>
@@ -4730,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>400</v>
       </c>
@@ -4760,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>401</v>
       </c>
@@ -4790,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>402</v>
       </c>
@@ -4820,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>403</v>
       </c>
@@ -4850,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>404</v>
       </c>
@@ -4880,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>405</v>
       </c>
@@ -4910,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>406</v>
       </c>
@@ -4940,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>407</v>
       </c>
@@ -4967,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -4994,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>409</v>
       </c>
@@ -5021,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>410</v>
       </c>
@@ -5048,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>417</v>
       </c>
@@ -5075,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>423</v>
       </c>
@@ -5102,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>425</v>
       </c>
@@ -5116,7 +5279,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="str">
-        <f>LEFT(B70,1)</f>
+        <f t="shared" ref="H70:H83" si="1">LEFT(B70,1)</f>
         <v>失</v>
       </c>
       <c r="I70" t="s">
@@ -5129,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>430</v>
       </c>
@@ -5143,7 +5306,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="str">
-        <f>LEFT(B71,1)</f>
+        <f t="shared" si="1"/>
         <v>绿</v>
       </c>
       <c r="I71" t="s">
@@ -5156,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>438</v>
       </c>
@@ -5173,7 +5336,7 @@
         <v>46</v>
       </c>
       <c r="H72" t="str">
-        <f>LEFT(B72,1)</f>
+        <f t="shared" si="1"/>
         <v>北</v>
       </c>
       <c r="I72" t="s">
@@ -5186,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>570</v>
       </c>
@@ -5200,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="str">
-        <f>LEFT(B73,1)</f>
+        <f t="shared" si="1"/>
         <v>山</v>
       </c>
       <c r="I73" t="s">
@@ -5213,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>571</v>
       </c>
@@ -5227,7 +5390,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="str">
-        <f>LEFT(B74,1)</f>
+        <f t="shared" si="1"/>
         <v>埃</v>
       </c>
       <c r="I74" t="s">
@@ -5240,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>573</v>
       </c>
@@ -5254,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="str">
-        <f>LEFT(B75,1)</f>
+        <f t="shared" si="1"/>
         <v>地</v>
       </c>
       <c r="I75" t="s">
@@ -5267,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>574</v>
       </c>
@@ -5281,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="str">
-        <f>LEFT(B76,1)</f>
+        <f t="shared" si="1"/>
         <v>小</v>
       </c>
       <c r="I76" t="s">
@@ -5294,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>575</v>
       </c>
@@ -5308,7 +5471,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="str">
-        <f>LEFT(B77,1)</f>
+        <f t="shared" si="1"/>
         <v>沙</v>
       </c>
       <c r="I77" t="s">
@@ -5321,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>576</v>
       </c>
@@ -5335,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="str">
-        <f>LEFT(B78,1)</f>
+        <f t="shared" si="1"/>
         <v>蚀</v>
       </c>
       <c r="I78" t="s">
@@ -5348,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>577</v>
       </c>
@@ -5362,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="str">
-        <f>LEFT(B79,1)</f>
+        <f t="shared" si="1"/>
         <v>战</v>
       </c>
       <c r="I79" t="s">
@@ -5375,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>578</v>
       </c>
@@ -5389,7 +5552,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="str">
-        <f>LEFT(B80,1)</f>
+        <f t="shared" si="1"/>
         <v>影</v>
       </c>
       <c r="I80" t="s">
@@ -5402,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>579</v>
       </c>
@@ -5416,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="H81" t="str">
-        <f>LEFT(B81,1)</f>
+        <f t="shared" si="1"/>
         <v>血</v>
       </c>
       <c r="I81" t="s">
@@ -5429,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>580</v>
       </c>
@@ -5443,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="H82" t="str">
-        <f>LEFT(B82,1)</f>
+        <f t="shared" si="1"/>
         <v>战</v>
       </c>
       <c r="I82" t="s">
@@ -5472,9 +5635,8 @@
       <c r="E83">
         <v>1</v>
       </c>
-      <c r="H83" t="str">
-        <f>LEFT(B83,1)</f>
-        <v>小</v>
+      <c r="H83" t="s">
+        <v>889</v>
       </c>
       <c r="I83" t="s">
         <v>273</v>
@@ -5503,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>824</v>
+        <v>890</v>
       </c>
       <c r="I84" t="s">
         <v>273</v>
@@ -5531,9 +5693,8 @@
       <c r="E85">
         <v>1</v>
       </c>
-      <c r="H85" t="str">
-        <f>LEFT(B85,1)</f>
-        <v>大</v>
+      <c r="H85" t="s">
+        <v>891</v>
       </c>
       <c r="I85" t="s">
         <v>273</v>
@@ -5545,7 +5706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>373</v>
       </c>
@@ -5562,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="H86" t="str">
-        <f>LEFT(B86,1)</f>
+        <f t="shared" ref="H85:H116" si="2">LEFT(B86,1)</f>
         <v>布</v>
       </c>
       <c r="I86" t="s">
@@ -5575,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>374</v>
       </c>
@@ -5592,7 +5753,7 @@
         <v>2</v>
       </c>
       <c r="H87" t="str">
-        <f>LEFT(B87,1)</f>
+        <f t="shared" si="2"/>
         <v>皮</v>
       </c>
       <c r="I87" t="s">
@@ -5605,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -5622,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="H88" t="str">
-        <f>LEFT(B88,1)</f>
+        <f t="shared" si="2"/>
         <v>轻</v>
       </c>
       <c r="I88" t="s">
@@ -5635,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -5652,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="H89" t="str">
-        <f>LEFT(B89,1)</f>
+        <f t="shared" si="2"/>
         <v>青</v>
       </c>
       <c r="I89" t="s">
@@ -5665,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>377</v>
       </c>
@@ -5682,7 +5843,7 @@
         <v>2</v>
       </c>
       <c r="H90" t="str">
-        <f>LEFT(B90,1)</f>
+        <f t="shared" si="2"/>
         <v>中</v>
       </c>
       <c r="I90" t="s">
@@ -5695,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -5712,7 +5873,7 @@
         <v>2</v>
       </c>
       <c r="H91" t="str">
-        <f>LEFT(B91,1)</f>
+        <f t="shared" si="2"/>
         <v>铁</v>
       </c>
       <c r="I91" t="s">
@@ -5725,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>379</v>
       </c>
@@ -5742,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="H92" t="str">
-        <f>LEFT(B92,1)</f>
+        <f t="shared" si="2"/>
         <v>钢</v>
       </c>
       <c r="I92" t="s">
@@ -5755,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>380</v>
       </c>
@@ -5769,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="H93" t="str">
-        <f>LEFT(B93,1)</f>
+        <f t="shared" si="2"/>
         <v>坚</v>
       </c>
       <c r="I93" t="s">
@@ -5782,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>381</v>
       </c>
@@ -5796,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="H94" t="str">
-        <f>LEFT(B94,1)</f>
+        <f t="shared" si="2"/>
         <v>死</v>
       </c>
       <c r="I94" t="s">
@@ -5809,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>382</v>
       </c>
@@ -5823,7 +5984,7 @@
         <v>3</v>
       </c>
       <c r="H95" t="str">
-        <f>LEFT(B95,1)</f>
+        <f t="shared" si="2"/>
         <v>幽</v>
       </c>
       <c r="I95" t="s">
@@ -5836,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>383</v>
       </c>
@@ -5850,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="H96" t="str">
-        <f>LEFT(B96,1)</f>
+        <f t="shared" si="2"/>
         <v>阎</v>
       </c>
       <c r="I96" t="s">
@@ -5863,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>412</v>
       </c>
@@ -5877,7 +6038,7 @@
         <v>3</v>
       </c>
       <c r="H97" t="str">
-        <f>LEFT(B97,1)</f>
+        <f t="shared" si="2"/>
         <v>虎</v>
       </c>
       <c r="I97" t="s">
@@ -5890,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>421</v>
       </c>
@@ -5904,7 +6065,7 @@
         <v>3</v>
       </c>
       <c r="H98" t="str">
-        <f>LEFT(B98,1)</f>
+        <f t="shared" si="2"/>
         <v>魔</v>
       </c>
       <c r="I98" t="s">
@@ -5917,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>427</v>
       </c>
@@ -5931,7 +6092,7 @@
         <v>3</v>
       </c>
       <c r="H99" t="str">
-        <f>LEFT(B99,1)</f>
+        <f t="shared" si="2"/>
         <v>龙</v>
       </c>
       <c r="I99" t="s">
@@ -5944,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>431</v>
       </c>
@@ -5958,7 +6119,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="str">
-        <f>LEFT(B100,1)</f>
+        <f t="shared" si="2"/>
         <v>虎</v>
       </c>
       <c r="I100" t="s">
@@ -5971,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>441</v>
       </c>
@@ -5985,7 +6146,7 @@
         <v>3</v>
       </c>
       <c r="H101" t="str">
-        <f>LEFT(B101,1)</f>
+        <f t="shared" si="2"/>
         <v>牛</v>
       </c>
       <c r="I101" t="s">
@@ -5998,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>591</v>
       </c>
@@ -6012,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="H102" t="str">
-        <f>LEFT(B102,1)</f>
+        <f t="shared" si="2"/>
         <v>德</v>
       </c>
       <c r="I102" t="s">
@@ -6025,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>592</v>
       </c>
@@ -6039,7 +6200,7 @@
         <v>3</v>
       </c>
       <c r="H103" t="str">
-        <f>LEFT(B103,1)</f>
+        <f t="shared" si="2"/>
         <v>手</v>
       </c>
       <c r="I103" t="s">
@@ -6052,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>593</v>
       </c>
@@ -6066,7 +6227,7 @@
         <v>3</v>
       </c>
       <c r="H104" t="str">
-        <f>LEFT(B104,1)</f>
+        <f t="shared" si="2"/>
         <v>碎</v>
       </c>
       <c r="I104" t="s">
@@ -6079,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>594</v>
       </c>
@@ -6093,7 +6254,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="str">
-        <f>LEFT(B105,1)</f>
+        <f t="shared" si="2"/>
         <v>霜</v>
       </c>
       <c r="I105" t="s">
@@ -6106,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>595</v>
       </c>
@@ -6120,7 +6281,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="str">
-        <f>LEFT(B106,1)</f>
+        <f t="shared" si="2"/>
         <v>女</v>
       </c>
       <c r="I106" t="s">
@@ -6133,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>596</v>
       </c>
@@ -6147,7 +6308,7 @@
         <v>3</v>
       </c>
       <c r="H107" t="str">
-        <f>LEFT(B107,1)</f>
+        <f t="shared" si="2"/>
         <v>塔</v>
       </c>
       <c r="I107" t="s">
@@ -6160,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>597</v>
       </c>
@@ -6174,7 +6335,7 @@
         <v>3</v>
       </c>
       <c r="H108" t="str">
-        <f>LEFT(B108,1)</f>
+        <f t="shared" si="2"/>
         <v>血</v>
       </c>
       <c r="I108" t="s">
@@ -6187,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>598</v>
       </c>
@@ -6201,7 +6362,7 @@
         <v>3</v>
       </c>
       <c r="H109" t="str">
-        <f>LEFT(B109,1)</f>
+        <f t="shared" si="2"/>
         <v>死</v>
       </c>
       <c r="I109" t="s">
@@ -6214,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>599</v>
       </c>
@@ -6228,7 +6389,7 @@
         <v>3</v>
       </c>
       <c r="H110" t="str">
-        <f>LEFT(B110,1)</f>
+        <f t="shared" si="2"/>
         <v>运</v>
       </c>
       <c r="I110" t="s">
@@ -6241,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>600</v>
       </c>
@@ -6255,7 +6416,7 @@
         <v>3</v>
       </c>
       <c r="H111" t="str">
-        <f>LEFT(B111,1)</f>
+        <f t="shared" si="2"/>
         <v>焚</v>
       </c>
       <c r="I111" t="s">
@@ -6268,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>150</v>
       </c>
@@ -6285,7 +6446,7 @@
         <v>2</v>
       </c>
       <c r="H112" t="str">
-        <f>LEFT(B112,1)</f>
+        <f t="shared" si="2"/>
         <v>布</v>
       </c>
       <c r="I112" t="s">
@@ -6298,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>502</v>
       </c>
@@ -6315,7 +6476,7 @@
         <v>2</v>
       </c>
       <c r="H113" t="str">
-        <f>LEFT(B113,1)</f>
+        <f t="shared" si="2"/>
         <v>皮</v>
       </c>
       <c r="I113" t="s">
@@ -6328,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>503</v>
       </c>
@@ -6345,7 +6506,7 @@
         <v>2</v>
       </c>
       <c r="H114" t="str">
-        <f>LEFT(B114,1)</f>
+        <f t="shared" si="2"/>
         <v>轻</v>
       </c>
       <c r="I114" t="s">
@@ -6358,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>504</v>
       </c>
@@ -6375,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="H115" t="str">
-        <f>LEFT(B115,1)</f>
+        <f t="shared" si="2"/>
         <v>青</v>
       </c>
       <c r="I115" t="s">
@@ -6391,7 +6552,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>505</v>
       </c>
@@ -6408,7 +6569,7 @@
         <v>2</v>
       </c>
       <c r="H116" t="str">
-        <f>LEFT(B116,1)</f>
+        <f t="shared" si="2"/>
         <v>中</v>
       </c>
       <c r="I116" t="s">
@@ -6421,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>506</v>
       </c>
@@ -6438,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="H117" t="str">
-        <f>LEFT(B117,1)</f>
+        <f t="shared" ref="H117:H133" si="3">LEFT(B117,1)</f>
         <v>铁</v>
       </c>
       <c r="I117" t="s">
@@ -6451,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>507</v>
       </c>
@@ -6468,7 +6629,7 @@
         <v>2</v>
       </c>
       <c r="H118" t="str">
-        <f>LEFT(B118,1)</f>
+        <f t="shared" si="3"/>
         <v>板</v>
       </c>
       <c r="I118" t="s">
@@ -6481,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>508</v>
       </c>
@@ -6495,7 +6656,7 @@
         <v>3</v>
       </c>
       <c r="H119" t="str">
-        <f>LEFT(B119,1)</f>
+        <f t="shared" si="3"/>
         <v>魔</v>
       </c>
       <c r="I119" t="s">
@@ -6514,7 +6675,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>509</v>
       </c>
@@ -6528,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="H120" t="str">
-        <f>LEFT(B120,1)</f>
+        <f t="shared" si="3"/>
         <v>道</v>
       </c>
       <c r="I120" t="s">
@@ -6547,7 +6708,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>510</v>
       </c>
@@ -6561,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="H121" t="str">
-        <f>LEFT(B121,1)</f>
+        <f t="shared" si="3"/>
         <v>骷</v>
       </c>
       <c r="I121" t="s">
@@ -6577,7 +6738,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>511</v>
       </c>
@@ -6591,7 +6752,7 @@
         <v>3</v>
       </c>
       <c r="H122" t="str">
-        <f>LEFT(B122,1)</f>
+        <f t="shared" si="3"/>
         <v>记</v>
       </c>
       <c r="I122" t="s">
@@ -6607,7 +6768,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>512</v>
       </c>
@@ -6621,7 +6782,7 @@
         <v>3</v>
       </c>
       <c r="H123" t="str">
-        <f>LEFT(B123,1)</f>
+        <f t="shared" si="3"/>
         <v>祈</v>
       </c>
       <c r="I123" t="s">
@@ -6640,7 +6801,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>513</v>
       </c>
@@ -6654,7 +6815,7 @@
         <v>3</v>
       </c>
       <c r="H124" t="str">
-        <f>LEFT(B124,1)</f>
+        <f t="shared" si="3"/>
         <v>黑</v>
       </c>
       <c r="I124" t="s">
@@ -6673,7 +6834,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>514</v>
       </c>
@@ -6687,7 +6848,7 @@
         <v>3</v>
       </c>
       <c r="H125" t="str">
-        <f>LEFT(B125,1)</f>
+        <f t="shared" si="3"/>
         <v>神</v>
       </c>
       <c r="I125" t="s">
@@ -6706,7 +6867,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>429</v>
       </c>
@@ -6720,7 +6881,7 @@
         <v>3</v>
       </c>
       <c r="H126" t="str">
-        <f>LEFT(B126,1)</f>
+        <f t="shared" si="3"/>
         <v>先</v>
       </c>
       <c r="I126" t="s">
@@ -6733,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>433</v>
       </c>
@@ -6750,7 +6911,7 @@
         <v>45</v>
       </c>
       <c r="H127" t="str">
-        <f>LEFT(B127,1)</f>
+        <f t="shared" si="3"/>
         <v>辉</v>
       </c>
       <c r="I127" t="s">
@@ -6763,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>434</v>
       </c>
@@ -6780,7 +6941,7 @@
         <v>47</v>
       </c>
       <c r="H128" t="str">
-        <f>LEFT(B128,1)</f>
+        <f t="shared" si="3"/>
         <v>焰</v>
       </c>
       <c r="I128" t="s">
@@ -6793,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>435</v>
       </c>
@@ -6810,7 +6971,7 @@
         <v>46</v>
       </c>
       <c r="H129" t="str">
-        <f>LEFT(B129,1)</f>
+        <f t="shared" si="3"/>
         <v>皓</v>
       </c>
       <c r="I129" t="s">
@@ -6823,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>609</v>
       </c>
@@ -6837,7 +6998,7 @@
         <v>3</v>
       </c>
       <c r="H130" t="str">
-        <f>LEFT(B130,1)</f>
+        <f t="shared" si="3"/>
         <v>摇</v>
       </c>
       <c r="I130" t="s">
@@ -6850,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>610</v>
       </c>
@@ -6864,7 +7025,7 @@
         <v>3</v>
       </c>
       <c r="H131" t="str">
-        <f>LEFT(B131,1)</f>
+        <f t="shared" si="3"/>
         <v>梦</v>
       </c>
       <c r="I131" t="s">
@@ -6877,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>611</v>
       </c>
@@ -6891,7 +7052,7 @@
         <v>3</v>
       </c>
       <c r="H132" t="str">
-        <f>LEFT(B132,1)</f>
+        <f t="shared" si="3"/>
         <v>迪</v>
       </c>
       <c r="I132" t="s">
@@ -6904,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>612</v>
       </c>
@@ -6918,7 +7079,7 @@
         <v>3</v>
       </c>
       <c r="H133" t="str">
-        <f>LEFT(B133,1)</f>
+        <f t="shared" si="3"/>
         <v>吉</v>
       </c>
       <c r="I133" t="s">
@@ -6931,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>613</v>
       </c>
@@ -6945,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" ref="H134:H198" si="1">LEFT(B134,1)</f>
+        <f t="shared" ref="H134:H198" si="4">LEFT(B134,1)</f>
         <v>年</v>
       </c>
       <c r="I134" t="s">
@@ -6958,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>614</v>
       </c>
@@ -6972,7 +7133,7 @@
         <v>3</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>格</v>
       </c>
       <c r="I135" t="s">
@@ -6985,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>615</v>
       </c>
@@ -6999,7 +7160,7 @@
         <v>3</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>狼</v>
       </c>
       <c r="I136" t="s">
@@ -7012,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>616</v>
       </c>
@@ -7026,7 +7187,7 @@
         <v>3</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>邪</v>
       </c>
       <c r="I137" t="s">
@@ -7039,12 +7200,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>825</v>
+      </c>
+      <c r="B138" t="s">
         <v>826</v>
-      </c>
-      <c r="B138" t="s">
-        <v>827</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -7055,9 +7216,8 @@
       <c r="E138">
         <v>2</v>
       </c>
-      <c r="H138" t="str">
-        <f t="shared" si="1"/>
-        <v>项</v>
+      <c r="H138" t="s">
+        <v>887</v>
       </c>
       <c r="I138" t="s">
         <v>266</v>
@@ -7069,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>472</v>
       </c>
@@ -7083,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>金</v>
       </c>
       <c r="I139" t="s">
@@ -7099,7 +7259,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>473</v>
       </c>
@@ -7113,7 +7273,7 @@
         <v>3</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>传</v>
       </c>
       <c r="I140" t="s">
@@ -7129,7 +7289,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>474</v>
       </c>
@@ -7143,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>黄</v>
       </c>
       <c r="I141" t="s">
@@ -7159,7 +7319,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>475</v>
       </c>
@@ -7173,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>黑</v>
       </c>
       <c r="I142" t="s">
@@ -7189,7 +7349,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>476</v>
       </c>
@@ -7203,7 +7363,7 @@
         <v>3</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>黑</v>
       </c>
       <c r="I143" t="s">
@@ -7219,7 +7379,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>477</v>
       </c>
@@ -7233,7 +7393,7 @@
         <v>3</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>白</v>
       </c>
       <c r="I144" t="s">
@@ -7252,7 +7412,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>478</v>
       </c>
@@ -7266,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>白</v>
       </c>
       <c r="I145" t="s">
@@ -7282,7 +7442,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>479</v>
       </c>
@@ -7296,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>灯</v>
       </c>
       <c r="I146" t="s">
@@ -7312,7 +7472,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>480</v>
       </c>
@@ -7326,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>琥</v>
       </c>
       <c r="I147" t="s">
@@ -7342,7 +7502,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>481</v>
       </c>
@@ -7356,7 +7516,7 @@
         <v>3</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>魔</v>
       </c>
       <c r="I148" t="s">
@@ -7372,7 +7532,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>482</v>
       </c>
@@ -7386,7 +7546,7 @@
         <v>3</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>凤</v>
       </c>
       <c r="I149" t="s">
@@ -7402,7 +7562,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>483</v>
       </c>
@@ -7416,7 +7576,7 @@
         <v>3</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
       <c r="I150" t="s">
@@ -7432,7 +7592,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>484</v>
       </c>
@@ -7446,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>竹</v>
       </c>
       <c r="I151" t="s">
@@ -7462,7 +7622,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>485</v>
       </c>
@@ -7476,7 +7636,7 @@
         <v>3</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>放</v>
       </c>
       <c r="I152" t="s">
@@ -7492,7 +7652,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>486</v>
       </c>
@@ -7506,7 +7666,7 @@
         <v>3</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>幽</v>
       </c>
       <c r="I153" t="s">
@@ -7522,7 +7682,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>487</v>
       </c>
@@ -7536,7 +7696,7 @@
         <v>3</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>绿</v>
       </c>
       <c r="I154" t="s">
@@ -7552,7 +7712,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>488</v>
       </c>
@@ -7566,7 +7726,7 @@
         <v>3</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>灵</v>
       </c>
       <c r="I155" t="s">
@@ -7582,7 +7742,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>489</v>
       </c>
@@ -7596,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>恶</v>
       </c>
       <c r="I156" t="s">
@@ -7612,7 +7772,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>490</v>
       </c>
@@ -7626,7 +7786,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>魔</v>
       </c>
       <c r="I157" t="s">
@@ -7642,7 +7802,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>491</v>
       </c>
@@ -7656,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>虹</v>
       </c>
       <c r="I158" t="s">
@@ -7672,7 +7832,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>492</v>
       </c>
@@ -7686,7 +7846,7 @@
         <v>3</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>狂</v>
       </c>
       <c r="I159" t="s">
@@ -7702,7 +7862,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>493</v>
       </c>
@@ -7716,7 +7876,7 @@
         <v>3</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>躲</v>
       </c>
       <c r="I160" t="s">
@@ -7732,7 +7892,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>621</v>
       </c>
@@ -7746,7 +7906,7 @@
         <v>3</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>天</v>
       </c>
       <c r="I161" t="s">
@@ -7759,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>622</v>
       </c>
@@ -7773,7 +7933,7 @@
         <v>3</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>暴</v>
       </c>
       <c r="I162" t="s">
@@ -7786,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>623</v>
       </c>
@@ -7800,7 +7960,7 @@
         <v>3</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>旭</v>
       </c>
       <c r="I163" t="s">
@@ -7813,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>624</v>
       </c>
@@ -7827,7 +7987,7 @@
         <v>3</v>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>金</v>
       </c>
       <c r="I164" t="s">
@@ -7840,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>392</v>
       </c>
@@ -7857,7 +8017,7 @@
         <v>2</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>轻</v>
       </c>
       <c r="I165" t="s">
@@ -7870,7 +8030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>393</v>
       </c>
@@ -7887,7 +8047,7 @@
         <v>2</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>皮</v>
       </c>
       <c r="I166" t="s">
@@ -7900,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>394</v>
       </c>
@@ -7917,7 +8077,7 @@
         <v>2</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>轻</v>
       </c>
       <c r="I167" t="s">
@@ -7930,7 +8090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>395</v>
       </c>
@@ -7947,7 +8107,7 @@
         <v>2</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>青</v>
       </c>
       <c r="I168" t="s">
@@ -7960,7 +8120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>396</v>
       </c>
@@ -7977,7 +8137,7 @@
         <v>2</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>中</v>
       </c>
       <c r="I169" t="s">
@@ -7990,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>397</v>
       </c>
@@ -8007,7 +8167,7 @@
         <v>2</v>
       </c>
       <c r="H170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>铁</v>
       </c>
       <c r="I170" t="s">
@@ -8020,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>398</v>
       </c>
@@ -8037,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>钢</v>
       </c>
       <c r="I171" t="s">
@@ -8050,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>399</v>
       </c>
@@ -8064,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>祖</v>
       </c>
       <c r="I172" t="s">
@@ -8077,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>413</v>
       </c>
@@ -8091,7 +8251,7 @@
         <v>3</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>恶</v>
       </c>
       <c r="I173" t="s">
@@ -8104,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>415</v>
       </c>
@@ -8118,7 +8278,7 @@
         <v>3</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>比</v>
       </c>
       <c r="I174" t="s">
@@ -8131,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>416</v>
       </c>
@@ -8145,7 +8305,7 @@
         <v>3</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>盟</v>
       </c>
       <c r="I175" t="s">
@@ -8158,7 +8318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>420</v>
       </c>
@@ -8172,7 +8332,7 @@
         <v>3</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>龙</v>
       </c>
       <c r="I176" t="s">
@@ -8185,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>424</v>
       </c>
@@ -8199,7 +8359,7 @@
         <v>3</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>征</v>
       </c>
       <c r="I177" t="s">
@@ -8212,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>426</v>
       </c>
@@ -8226,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>失</v>
       </c>
       <c r="I178" t="s">
@@ -8239,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>432</v>
       </c>
@@ -8253,7 +8413,7 @@
         <v>3</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>雪</v>
       </c>
       <c r="I179" t="s">
@@ -8266,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>442</v>
       </c>
@@ -8280,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>尸</v>
       </c>
       <c r="I180" t="s">
@@ -8293,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>635</v>
       </c>
@@ -8307,7 +8467,7 @@
         <v>3</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>恶</v>
       </c>
       <c r="I181" t="s">
@@ -8320,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>636</v>
       </c>
@@ -8334,7 +8494,7 @@
         <v>3</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>冥</v>
       </c>
       <c r="I182" t="s">
@@ -8347,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>637</v>
       </c>
@@ -8361,7 +8521,7 @@
         <v>3</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>石</v>
       </c>
       <c r="I183" t="s">
@@ -8374,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>638</v>
       </c>
@@ -8388,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>污</v>
       </c>
       <c r="I184" t="s">
@@ -8401,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>639</v>
       </c>
@@ -8415,7 +8575,7 @@
         <v>3</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>蛇</v>
       </c>
       <c r="I185" t="s">
@@ -8428,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>640</v>
       </c>
@@ -8442,7 +8602,7 @@
         <v>3</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>矿</v>
       </c>
       <c r="I186" t="s">
@@ -8455,7 +8615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>641</v>
       </c>
@@ -8469,7 +8629,7 @@
         <v>3</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>基</v>
       </c>
       <c r="I187" t="s">
@@ -8482,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>642</v>
       </c>
@@ -8496,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>狡</v>
       </c>
       <c r="I188" t="s">
@@ -8509,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>643</v>
       </c>
@@ -8523,7 +8683,7 @@
         <v>3</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>队</v>
       </c>
       <c r="I189" t="s">
@@ -8536,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>644</v>
       </c>
@@ -8550,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>阴</v>
       </c>
       <c r="I190" t="s">
@@ -8563,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>515</v>
       </c>
@@ -8580,7 +8740,7 @@
         <v>2</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>布</v>
       </c>
       <c r="I191" t="s">
@@ -8593,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>516</v>
       </c>
@@ -8610,7 +8770,7 @@
         <v>2</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>硬</v>
       </c>
       <c r="I192" t="s">
@@ -8623,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>517</v>
       </c>
@@ -8640,7 +8800,7 @@
         <v>2</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>轻</v>
       </c>
       <c r="I193" t="s">
@@ -8653,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>518</v>
       </c>
@@ -8670,7 +8830,7 @@
         <v>2</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>青</v>
       </c>
       <c r="I194" t="s">
@@ -8683,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>519</v>
       </c>
@@ -8700,7 +8860,7 @@
         <v>2</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>中</v>
       </c>
       <c r="I195" t="s">
@@ -8713,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>520</v>
       </c>
@@ -8730,7 +8890,7 @@
         <v>2</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>铁</v>
       </c>
       <c r="I196" t="s">
@@ -8743,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>521</v>
       </c>
@@ -8760,7 +8920,7 @@
         <v>2</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>钢</v>
       </c>
       <c r="I197" t="s">
@@ -8773,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>522</v>
       </c>
@@ -8787,7 +8947,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>奥</v>
       </c>
       <c r="I198" t="s">
@@ -8800,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>523</v>
       </c>
@@ -8814,7 +8974,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" ref="H199:H243" si="2">LEFT(B199,1)</f>
+        <f t="shared" ref="H199:H243" si="5">LEFT(B199,1)</f>
         <v>尼</v>
       </c>
       <c r="I199" t="s">
@@ -8827,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>524</v>
       </c>
@@ -8841,7 +9001,7 @@
         <v>3</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>白</v>
       </c>
       <c r="I200" t="s">
@@ -8854,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>525</v>
       </c>
@@ -8868,7 +9028,7 @@
         <v>3</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>遗</v>
       </c>
       <c r="I201" t="s">
@@ -8881,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>526</v>
       </c>
@@ -8895,7 +9055,7 @@
         <v>3</v>
       </c>
       <c r="H202" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>魔</v>
       </c>
       <c r="I202" t="s">
@@ -8908,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>527</v>
       </c>
@@ -8922,7 +9082,7 @@
         <v>3</v>
       </c>
       <c r="H203" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>血</v>
       </c>
       <c r="I203" t="s">
@@ -8935,7 +9095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>528</v>
       </c>
@@ -8949,7 +9109,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>瑟</v>
       </c>
       <c r="I204" t="s">
@@ -8962,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>428</v>
       </c>
@@ -8976,7 +9136,7 @@
         <v>3</v>
       </c>
       <c r="H205" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>帝</v>
       </c>
       <c r="I205" t="s">
@@ -8989,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>440</v>
       </c>
@@ -9003,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="H206" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>骨</v>
       </c>
       <c r="I206" t="s">
@@ -9016,7 +9176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>657</v>
       </c>
@@ -9030,7 +9190,7 @@
         <v>3</v>
       </c>
       <c r="H207" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>归</v>
       </c>
       <c r="I207" t="s">
@@ -9043,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>658</v>
       </c>
@@ -9057,7 +9217,7 @@
         <v>3</v>
       </c>
       <c r="H208" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>尸</v>
       </c>
       <c r="I208" t="s">
@@ -9070,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>659</v>
       </c>
@@ -9084,7 +9244,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>叛</v>
       </c>
       <c r="I209" t="s">
@@ -9097,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>660</v>
       </c>
@@ -9111,7 +9271,7 @@
         <v>3</v>
       </c>
       <c r="H210" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>死</v>
       </c>
       <c r="I210" t="s">
@@ -9124,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>661</v>
       </c>
@@ -9138,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="H211" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>尸</v>
       </c>
       <c r="I211" t="s">
@@ -9151,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>662</v>
       </c>
@@ -9165,7 +9325,7 @@
         <v>3</v>
       </c>
       <c r="H212" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>生</v>
       </c>
       <c r="I212" t="s">
@@ -9178,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>663</v>
       </c>
@@ -9192,7 +9352,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>导</v>
       </c>
       <c r="I213" t="s">
@@ -9205,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>664</v>
       </c>
@@ -9219,7 +9379,7 @@
         <v>3</v>
       </c>
       <c r="H214" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>远</v>
       </c>
       <c r="I214" t="s">
@@ -9232,7 +9392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>665</v>
       </c>
@@ -9246,7 +9406,7 @@
         <v>3</v>
       </c>
       <c r="H215" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>邪</v>
       </c>
       <c r="I215" t="s">
@@ -9259,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>666</v>
       </c>
@@ -9273,7 +9433,7 @@
         <v>3</v>
       </c>
       <c r="H216" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>七</v>
       </c>
       <c r="I216" t="s">
@@ -9286,12 +9446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>827</v>
+      </c>
+      <c r="B217" t="s">
         <v>828</v>
-      </c>
-      <c r="B217" t="s">
-        <v>829</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -9302,9 +9462,8 @@
       <c r="E217">
         <v>2</v>
       </c>
-      <c r="H217" t="str">
-        <f t="shared" si="2"/>
-        <v>戒</v>
+      <c r="H217" t="s">
+        <v>888</v>
       </c>
       <c r="I217" t="s">
         <v>216</v>
@@ -9316,7 +9475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>447</v>
       </c>
@@ -9330,7 +9489,7 @@
         <v>3</v>
       </c>
       <c r="H218" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>古</v>
       </c>
       <c r="I218" t="s">
@@ -9343,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>448</v>
       </c>
@@ -9357,7 +9516,7 @@
         <v>3</v>
       </c>
       <c r="H219" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>玻</v>
       </c>
       <c r="I219" t="s">
@@ -9370,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>449</v>
       </c>
@@ -9384,7 +9543,7 @@
         <v>3</v>
       </c>
       <c r="H220" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>六</v>
       </c>
       <c r="I220" t="s">
@@ -9397,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>450</v>
       </c>
@@ -9411,7 +9570,7 @@
         <v>3</v>
       </c>
       <c r="H221" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>牛</v>
       </c>
       <c r="I221" t="s">
@@ -9424,7 +9583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>451</v>
       </c>
@@ -9438,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="H222" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>蓝</v>
       </c>
       <c r="I222" t="s">
@@ -9451,7 +9610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>452</v>
       </c>
@@ -9465,7 +9624,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>生</v>
       </c>
       <c r="I223" t="s">
@@ -9478,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>453</v>
       </c>
@@ -9492,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="H224" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>珍</v>
       </c>
       <c r="I224" t="s">
@@ -9505,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>454</v>
       </c>
@@ -9519,7 +9678,7 @@
         <v>3</v>
       </c>
       <c r="H225" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>黑</v>
       </c>
       <c r="I225" t="s">
@@ -9532,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>455</v>
       </c>
@@ -9546,7 +9705,7 @@
         <v>3</v>
       </c>
       <c r="H226" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>蛇</v>
       </c>
       <c r="I226" t="s">
@@ -9559,7 +9718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>456</v>
       </c>
@@ -9573,7 +9732,7 @@
         <v>3</v>
       </c>
       <c r="H227" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>金</v>
       </c>
       <c r="I227" t="s">
@@ -9586,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>457</v>
       </c>
@@ -9600,7 +9759,7 @@
         <v>3</v>
       </c>
       <c r="H228" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>道</v>
       </c>
       <c r="I228" t="s">
@@ -9613,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>458</v>
       </c>
@@ -9627,7 +9786,7 @@
         <v>3</v>
       </c>
       <c r="H229" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>魅</v>
       </c>
       <c r="I229" t="s">
@@ -9640,7 +9799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -9654,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="H230" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>降</v>
       </c>
       <c r="I230" t="s">
@@ -9667,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -9681,7 +9840,7 @@
         <v>3</v>
       </c>
       <c r="H231" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>铂</v>
       </c>
       <c r="I231" t="s">
@@ -9694,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>461</v>
       </c>
@@ -9708,7 +9867,7 @@
         <v>3</v>
       </c>
       <c r="H232" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>骷</v>
       </c>
       <c r="I232" t="s">
@@ -9721,7 +9880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -9735,7 +9894,7 @@
         <v>3</v>
       </c>
       <c r="H233" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>珊</v>
       </c>
       <c r="I233" t="s">
@@ -9748,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>463</v>
       </c>
@@ -9762,7 +9921,7 @@
         <v>3</v>
       </c>
       <c r="H234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>虹</v>
       </c>
       <c r="I234" t="s">
@@ -9775,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>464</v>
       </c>
@@ -9789,7 +9948,7 @@
         <v>3</v>
       </c>
       <c r="H235" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>红</v>
       </c>
       <c r="I235" t="s">
@@ -9802,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>465</v>
       </c>
@@ -9816,7 +9975,7 @@
         <v>3</v>
       </c>
       <c r="H236" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>龙</v>
       </c>
       <c r="I236" t="s">
@@ -9829,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>466</v>
       </c>
@@ -9843,7 +10002,7 @@
         <v>3</v>
       </c>
       <c r="H237" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>狂</v>
       </c>
       <c r="I237" t="s">
@@ -9856,7 +10015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -9870,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="H238" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>泰</v>
       </c>
       <c r="I238" t="s">
@@ -9883,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>468</v>
       </c>
@@ -9897,7 +10056,7 @@
         <v>3</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>力</v>
       </c>
       <c r="I239" t="s">
@@ -9910,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>469</v>
       </c>
@@ -9924,7 +10083,7 @@
         <v>3</v>
       </c>
       <c r="H240" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>紫</v>
       </c>
       <c r="I240" t="s">
@@ -9937,7 +10096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>470</v>
       </c>
@@ -9951,7 +10110,7 @@
         <v>3</v>
       </c>
       <c r="H241" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>神</v>
       </c>
       <c r="I241" t="s">
@@ -9964,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>471</v>
       </c>
@@ -9978,7 +10137,7 @@
         <v>3</v>
       </c>
       <c r="H242" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>麻</v>
       </c>
       <c r="I242" t="s">
@@ -9991,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>646</v>
       </c>
@@ -10005,7 +10164,7 @@
         <v>3</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>收</v>
       </c>
       <c r="I243" t="s">
@@ -10018,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -10053,7 +10212,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -10088,7 +10247,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -10126,7 +10285,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -10161,7 +10320,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -10196,7 +10355,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -10231,7 +10390,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -10266,7 +10425,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -10298,7 +10457,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -10330,7 +10489,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -10365,7 +10524,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>16</v>
       </c>
@@ -10400,7 +10559,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -10435,7 +10594,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>18</v>
       </c>
@@ -10470,7 +10629,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>19</v>
       </c>
@@ -10505,7 +10664,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -10540,7 +10699,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>21</v>
       </c>
@@ -10575,7 +10734,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>22</v>
       </c>
@@ -10610,7 +10769,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -10645,7 +10804,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -10680,7 +10839,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>25</v>
       </c>
@@ -10718,7 +10877,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>26</v>
       </c>
@@ -10753,7 +10912,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -10788,7 +10947,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>28</v>
       </c>
@@ -10826,7 +10985,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>29</v>
       </c>
@@ -10861,7 +11020,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>30</v>
       </c>
@@ -10899,7 +11058,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>31</v>
       </c>
@@ -10937,7 +11096,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>32</v>
       </c>
@@ -10975,7 +11134,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>33</v>
       </c>
@@ -11013,7 +11172,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>34</v>
       </c>
@@ -11051,7 +11210,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>497</v>
       </c>
@@ -11065,7 +11224,7 @@
         <v>3</v>
       </c>
       <c r="H273" t="str">
-        <f t="shared" ref="H273:H334" si="3">LEFT(B273,1)</f>
+        <f t="shared" ref="H273:H334" si="6">LEFT(B273,1)</f>
         <v>虹</v>
       </c>
       <c r="I273" t="s">
@@ -11078,7 +11237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>499</v>
       </c>
@@ -11092,7 +11251,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>神</v>
       </c>
       <c r="I274" t="s">
@@ -11105,7 +11264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>500</v>
       </c>
@@ -11119,7 +11278,7 @@
         <v>3</v>
       </c>
       <c r="H275" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>魔</v>
       </c>
       <c r="I275" t="s">
@@ -11132,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>501</v>
       </c>
@@ -11146,7 +11305,7 @@
         <v>3</v>
       </c>
       <c r="H276" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>赤</v>
       </c>
       <c r="I276" t="s">
@@ -11159,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>439</v>
       </c>
@@ -11176,7 +11335,7 @@
         <v>47</v>
       </c>
       <c r="H277" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>启</v>
       </c>
       <c r="I277" t="s">
@@ -11189,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>443</v>
       </c>
@@ -11206,7 +11365,7 @@
         <v>45</v>
       </c>
       <c r="H278" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>怒</v>
       </c>
       <c r="I278" t="s">
@@ -11219,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>444</v>
       </c>
@@ -11236,7 +11395,7 @@
         <v>47</v>
       </c>
       <c r="H279" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>龙</v>
       </c>
       <c r="I279" t="s">
@@ -11249,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>445</v>
       </c>
@@ -11266,7 +11425,7 @@
         <v>46</v>
       </c>
       <c r="H280" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>逍</v>
       </c>
       <c r="I280" t="s">
@@ -11279,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>446</v>
       </c>
@@ -11293,7 +11452,7 @@
         <v>3</v>
       </c>
       <c r="H281" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>卧</v>
       </c>
       <c r="I281" t="s">
@@ -11306,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>347</v>
       </c>
@@ -11323,7 +11482,7 @@
         <v>2</v>
       </c>
       <c r="H282" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>白</v>
       </c>
       <c r="I282" t="s">
@@ -11336,7 +11495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>348</v>
       </c>
@@ -11353,7 +11512,7 @@
         <v>2</v>
       </c>
       <c r="H283" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>软</v>
       </c>
       <c r="I283" t="s">
@@ -11366,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>349</v>
       </c>
@@ -11383,7 +11542,7 @@
         <v>2</v>
       </c>
       <c r="H284" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>轻</v>
       </c>
       <c r="I284" t="s">
@@ -11396,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>350</v>
       </c>
@@ -11413,7 +11572,7 @@
         <v>2</v>
       </c>
       <c r="H285" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>青</v>
       </c>
       <c r="I285" t="s">
@@ -11426,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>351</v>
       </c>
@@ -11443,7 +11602,7 @@
         <v>2</v>
       </c>
       <c r="H286" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>中</v>
       </c>
       <c r="I286" t="s">
@@ -11456,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>352</v>
       </c>
@@ -11473,7 +11632,7 @@
         <v>2</v>
       </c>
       <c r="H287" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>铁</v>
       </c>
       <c r="I287" t="s">
@@ -11486,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>353</v>
       </c>
@@ -11503,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="H288" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>钢</v>
       </c>
       <c r="I288" t="s">
@@ -11516,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>354</v>
       </c>
@@ -11530,7 +11689,7 @@
         <v>3</v>
       </c>
       <c r="H289" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>沃</v>
       </c>
       <c r="I289" t="s">
@@ -11543,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>355</v>
       </c>
@@ -11557,7 +11716,7 @@
         <v>3</v>
       </c>
       <c r="H290" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>铁</v>
       </c>
       <c r="I290" t="s">
@@ -11570,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>356</v>
       </c>
@@ -11584,7 +11743,7 @@
         <v>3</v>
       </c>
       <c r="H291" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>小</v>
       </c>
       <c r="I291" t="s">
@@ -11597,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>357</v>
       </c>
@@ -11611,7 +11770,7 @@
         <v>3</v>
       </c>
       <c r="H292" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>银</v>
       </c>
       <c r="I292" t="s">
@@ -11624,7 +11783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>358</v>
       </c>
@@ -11638,7 +11797,7 @@
         <v>3</v>
       </c>
       <c r="H293" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>大</v>
       </c>
       <c r="I293" t="s">
@@ -11651,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>359</v>
       </c>
@@ -11665,7 +11824,7 @@
         <v>3</v>
       </c>
       <c r="H294" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>钢</v>
       </c>
       <c r="I294" t="s">
@@ -11678,7 +11837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>360</v>
       </c>
@@ -11692,7 +11851,7 @@
         <v>3</v>
       </c>
       <c r="H295" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>魔</v>
       </c>
       <c r="I295" t="s">
@@ -11705,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>361</v>
       </c>
@@ -11719,7 +11878,7 @@
         <v>3</v>
       </c>
       <c r="H296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>夏</v>
       </c>
       <c r="I296" t="s">
@@ -11732,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>362</v>
       </c>
@@ -11746,7 +11905,7 @@
         <v>3</v>
       </c>
       <c r="H297" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>辟</v>
       </c>
       <c r="I297" t="s">
@@ -11759,7 +11918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>363</v>
       </c>
@@ -11773,7 +11932,7 @@
         <v>3</v>
       </c>
       <c r="H298" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>道</v>
       </c>
       <c r="I298" t="s">
@@ -11786,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>364</v>
       </c>
@@ -11800,7 +11959,7 @@
         <v>3</v>
       </c>
       <c r="H299" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>黑</v>
       </c>
       <c r="I299" t="s">
@@ -11813,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>365</v>
       </c>
@@ -11827,7 +11986,7 @@
         <v>3</v>
       </c>
       <c r="H300" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>魔</v>
       </c>
       <c r="I300" t="s">
@@ -11840,7 +11999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>366</v>
       </c>
@@ -11854,7 +12013,7 @@
         <v>3</v>
       </c>
       <c r="H301" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>金</v>
       </c>
       <c r="I301" t="s">
@@ -11867,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>367</v>
       </c>
@@ -11881,7 +12040,7 @@
         <v>3</v>
       </c>
       <c r="H302" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>心</v>
       </c>
       <c r="I302" t="s">
@@ -11894,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>368</v>
       </c>
@@ -11908,7 +12067,7 @@
         <v>3</v>
       </c>
       <c r="H303" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>三</v>
       </c>
       <c r="I303" t="s">
@@ -11921,7 +12080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>369</v>
       </c>
@@ -11935,7 +12094,7 @@
         <v>3</v>
       </c>
       <c r="H304" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>思</v>
       </c>
       <c r="I304" t="s">
@@ -11948,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>370</v>
       </c>
@@ -11962,7 +12121,7 @@
         <v>3</v>
       </c>
       <c r="H305" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>龙</v>
       </c>
       <c r="I305" t="s">
@@ -11975,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>371</v>
       </c>
@@ -11989,7 +12148,7 @@
         <v>3</v>
       </c>
       <c r="H306" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>骑</v>
       </c>
       <c r="I306" t="s">
@@ -12002,7 +12161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>372</v>
       </c>
@@ -12016,7 +12175,7 @@
         <v>3</v>
       </c>
       <c r="H307" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>魔</v>
       </c>
       <c r="I307" t="s">
@@ -12029,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>731</v>
       </c>
@@ -12037,17 +12196,13 @@
         <v>711</v>
       </c>
       <c r="C308">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D308">
         <v>0</v>
       </c>
-      <c r="E308">
-        <v>2</v>
-      </c>
-      <c r="H308" t="str">
-        <f t="shared" si="3"/>
-        <v>破</v>
+      <c r="H308" t="s">
+        <v>854</v>
       </c>
       <c r="I308" t="s">
         <v>756</v>
@@ -12058,8 +12213,11 @@
       <c r="K308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L308" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>732</v>
       </c>
@@ -12067,17 +12225,13 @@
         <v>712</v>
       </c>
       <c r="C309">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
-      <c r="E309">
-        <v>2</v>
-      </c>
-      <c r="H309" t="str">
-        <f t="shared" si="3"/>
-        <v>破</v>
+      <c r="H309" t="s">
+        <v>855</v>
       </c>
       <c r="I309" t="s">
         <v>756</v>
@@ -12088,8 +12242,11 @@
       <c r="K309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L309" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>733</v>
       </c>
@@ -12102,12 +12259,8 @@
       <c r="D310">
         <v>0</v>
       </c>
-      <c r="E310">
-        <v>2</v>
-      </c>
-      <c r="H310" t="str">
-        <f t="shared" si="3"/>
-        <v>破</v>
+      <c r="H310" t="s">
+        <v>856</v>
       </c>
       <c r="I310" t="s">
         <v>756</v>
@@ -12118,8 +12271,11 @@
       <c r="K310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L310" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>734</v>
       </c>
@@ -12127,17 +12283,13 @@
         <v>714</v>
       </c>
       <c r="C311">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
-      <c r="E311">
-        <v>2</v>
-      </c>
-      <c r="H311" t="str">
-        <f t="shared" si="3"/>
-        <v>破</v>
+      <c r="H311" t="s">
+        <v>857</v>
       </c>
       <c r="I311" t="s">
         <v>756</v>
@@ -12148,8 +12300,11 @@
       <c r="K311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L311" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>735</v>
       </c>
@@ -12157,17 +12312,13 @@
         <v>715</v>
       </c>
       <c r="C312">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D312">
         <v>0</v>
       </c>
-      <c r="E312">
-        <v>2</v>
-      </c>
-      <c r="H312" t="str">
-        <f t="shared" si="3"/>
-        <v>破</v>
+      <c r="H312" t="s">
+        <v>858</v>
       </c>
       <c r="I312" t="s">
         <v>756</v>
@@ -12178,8 +12329,11 @@
       <c r="K312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L312" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>736</v>
       </c>
@@ -12187,17 +12341,13 @@
         <v>716</v>
       </c>
       <c r="C313">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D313">
         <v>1</v>
       </c>
-      <c r="E313">
-        <v>2</v>
-      </c>
-      <c r="H313" t="str">
-        <f t="shared" si="3"/>
-        <v>开</v>
+      <c r="H313" t="s">
+        <v>859</v>
       </c>
       <c r="I313" t="s">
         <v>756</v>
@@ -12208,8 +12358,11 @@
       <c r="K313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L313" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>737</v>
       </c>
@@ -12217,17 +12370,13 @@
         <v>717</v>
       </c>
       <c r="C314">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D314">
         <v>1</v>
       </c>
-      <c r="E314">
-        <v>2</v>
-      </c>
-      <c r="H314" t="str">
-        <f t="shared" si="3"/>
-        <v>开</v>
+      <c r="H314" t="s">
+        <v>860</v>
       </c>
       <c r="I314" t="s">
         <v>756</v>
@@ -12238,8 +12387,11 @@
       <c r="K314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L314" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>738</v>
       </c>
@@ -12247,17 +12399,13 @@
         <v>718</v>
       </c>
       <c r="C315">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D315">
         <v>1</v>
       </c>
-      <c r="E315">
-        <v>2</v>
-      </c>
-      <c r="H315" t="str">
-        <f t="shared" si="3"/>
-        <v>开</v>
+      <c r="H315" t="s">
+        <v>861</v>
       </c>
       <c r="I315" t="s">
         <v>756</v>
@@ -12268,8 +12416,11 @@
       <c r="K315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L315" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>739</v>
       </c>
@@ -12277,17 +12428,13 @@
         <v>719</v>
       </c>
       <c r="C316">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D316">
         <v>1</v>
       </c>
-      <c r="E316">
-        <v>2</v>
-      </c>
-      <c r="H316" t="str">
-        <f t="shared" si="3"/>
-        <v>开</v>
+      <c r="H316" t="s">
+        <v>862</v>
       </c>
       <c r="I316" t="s">
         <v>756</v>
@@ -12298,8 +12445,11 @@
       <c r="K316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L316" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>740</v>
       </c>
@@ -12312,12 +12462,8 @@
       <c r="D317">
         <v>1</v>
       </c>
-      <c r="E317">
-        <v>2</v>
-      </c>
-      <c r="H317" t="str">
-        <f t="shared" si="3"/>
-        <v>开</v>
+      <c r="H317" t="s">
+        <v>863</v>
       </c>
       <c r="I317" t="s">
         <v>756</v>
@@ -12328,8 +12474,11 @@
       <c r="K317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L317" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>741</v>
       </c>
@@ -12337,14 +12486,13 @@
         <v>706</v>
       </c>
       <c r="C318">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D318">
         <v>2</v>
       </c>
-      <c r="H318" t="str">
-        <f t="shared" si="3"/>
-        <v>金</v>
+      <c r="H318" t="s">
+        <v>864</v>
       </c>
       <c r="I318" t="s">
         <v>756</v>
@@ -12355,8 +12503,11 @@
       <c r="K318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L318" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>742</v>
       </c>
@@ -12364,14 +12515,13 @@
         <v>707</v>
       </c>
       <c r="C319">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D319">
         <v>2</v>
       </c>
-      <c r="H319" t="str">
-        <f t="shared" si="3"/>
-        <v>木</v>
+      <c r="H319" t="s">
+        <v>865</v>
       </c>
       <c r="I319" t="s">
         <v>756</v>
@@ -12382,8 +12532,11 @@
       <c r="K319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L319" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>743</v>
       </c>
@@ -12391,14 +12544,13 @@
         <v>708</v>
       </c>
       <c r="C320">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D320">
         <v>2</v>
       </c>
-      <c r="H320" t="str">
-        <f t="shared" si="3"/>
-        <v>水</v>
+      <c r="H320" t="s">
+        <v>866</v>
       </c>
       <c r="I320" t="s">
         <v>756</v>
@@ -12409,8 +12561,11 @@
       <c r="K320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L320" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>744</v>
       </c>
@@ -12418,14 +12573,13 @@
         <v>709</v>
       </c>
       <c r="C321">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D321">
         <v>2</v>
       </c>
-      <c r="H321" t="str">
-        <f t="shared" si="3"/>
-        <v>火</v>
+      <c r="H321" t="s">
+        <v>867</v>
       </c>
       <c r="I321" t="s">
         <v>756</v>
@@ -12436,8 +12590,11 @@
       <c r="K321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L321" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>745</v>
       </c>
@@ -12445,14 +12602,13 @@
         <v>710</v>
       </c>
       <c r="C322">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D322">
         <v>2</v>
       </c>
-      <c r="H322" t="str">
-        <f t="shared" si="3"/>
-        <v>土</v>
+      <c r="H322" t="s">
+        <v>868</v>
       </c>
       <c r="I322" t="s">
         <v>756</v>
@@ -12463,8 +12619,11 @@
       <c r="K322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L322" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>746</v>
       </c>
@@ -12472,14 +12631,13 @@
         <v>721</v>
       </c>
       <c r="C323">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D323">
         <v>3</v>
       </c>
-      <c r="H323" t="str">
-        <f t="shared" si="3"/>
-        <v>无</v>
+      <c r="H323" t="s">
+        <v>869</v>
       </c>
       <c r="I323" t="s">
         <v>756</v>
@@ -12490,8 +12648,11 @@
       <c r="K323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L323" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>747</v>
       </c>
@@ -12499,14 +12660,13 @@
         <v>722</v>
       </c>
       <c r="C324">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D324">
         <v>3</v>
       </c>
-      <c r="H324" t="str">
-        <f t="shared" si="3"/>
-        <v>无</v>
+      <c r="H324" t="s">
+        <v>870</v>
       </c>
       <c r="I324" t="s">
         <v>756</v>
@@ -12517,8 +12677,11 @@
       <c r="K324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L324" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>748</v>
       </c>
@@ -12526,14 +12689,13 @@
         <v>723</v>
       </c>
       <c r="C325">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D325">
         <v>3</v>
       </c>
-      <c r="H325" t="str">
-        <f t="shared" si="3"/>
-        <v>无</v>
+      <c r="H325" t="s">
+        <v>871</v>
       </c>
       <c r="I325" t="s">
         <v>756</v>
@@ -12544,8 +12706,11 @@
       <c r="K325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L325" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>749</v>
       </c>
@@ -12553,14 +12718,13 @@
         <v>724</v>
       </c>
       <c r="C326">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D326">
         <v>3</v>
       </c>
-      <c r="H326" t="str">
-        <f t="shared" si="3"/>
-        <v>无</v>
+      <c r="H326" t="s">
+        <v>872</v>
       </c>
       <c r="I326" t="s">
         <v>756</v>
@@ -12571,8 +12735,11 @@
       <c r="K326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L326" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>750</v>
       </c>
@@ -12580,14 +12747,13 @@
         <v>725</v>
       </c>
       <c r="C327">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D327">
         <v>3</v>
       </c>
-      <c r="H327" t="str">
-        <f t="shared" si="3"/>
-        <v>无</v>
+      <c r="H327" t="s">
+        <v>873</v>
       </c>
       <c r="I327" t="s">
         <v>756</v>
@@ -12598,8 +12764,11 @@
       <c r="K327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L327" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>751</v>
       </c>
@@ -12607,14 +12776,13 @@
         <v>726</v>
       </c>
       <c r="C328">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D328">
         <v>4</v>
       </c>
-      <c r="H328" t="str">
-        <f t="shared" si="3"/>
-        <v>完</v>
+      <c r="H328" t="s">
+        <v>874</v>
       </c>
       <c r="I328" t="s">
         <v>756</v>
@@ -12625,8 +12793,11 @@
       <c r="K328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L328" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>752</v>
       </c>
@@ -12634,14 +12805,13 @@
         <v>727</v>
       </c>
       <c r="C329">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D329">
         <v>4</v>
       </c>
-      <c r="H329" t="str">
-        <f t="shared" si="3"/>
-        <v>完</v>
+      <c r="H329" t="s">
+        <v>875</v>
       </c>
       <c r="I329" t="s">
         <v>756</v>
@@ -12652,8 +12822,11 @@
       <c r="K329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L329" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>753</v>
       </c>
@@ -12661,14 +12834,13 @@
         <v>728</v>
       </c>
       <c r="C330">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D330">
         <v>4</v>
       </c>
-      <c r="H330" t="str">
-        <f t="shared" si="3"/>
-        <v>完</v>
+      <c r="H330" t="s">
+        <v>876</v>
       </c>
       <c r="I330" t="s">
         <v>756</v>
@@ -12679,8 +12851,11 @@
       <c r="K330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L330" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>754</v>
       </c>
@@ -12688,14 +12863,13 @@
         <v>729</v>
       </c>
       <c r="C331">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D331">
         <v>4</v>
       </c>
-      <c r="H331" t="str">
-        <f t="shared" si="3"/>
-        <v>完</v>
+      <c r="H331" t="s">
+        <v>877</v>
       </c>
       <c r="I331" t="s">
         <v>756</v>
@@ -12706,8 +12880,11 @@
       <c r="K331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L331" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>755</v>
       </c>
@@ -12715,14 +12892,13 @@
         <v>730</v>
       </c>
       <c r="C332">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D332">
         <v>4</v>
       </c>
-      <c r="H332" t="str">
-        <f t="shared" si="3"/>
-        <v>完</v>
+      <c r="H332" t="s">
+        <v>878</v>
       </c>
       <c r="I332" t="s">
         <v>756</v>
@@ -12733,8 +12909,11 @@
       <c r="K332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L332" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>759</v>
       </c>
@@ -12748,7 +12927,7 @@
         <v>3</v>
       </c>
       <c r="H333" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>无</v>
       </c>
       <c r="I333" t="s">
@@ -12764,7 +12943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>765</v>
       </c>
@@ -12778,7 +12957,7 @@
         <v>3</v>
       </c>
       <c r="H334" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>沃</v>
       </c>
       <c r="I334" t="s">
@@ -12793,13 +12972,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:N334" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="charm"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N238">
       <sortCondition ref="I4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/configs/Item.xlsx
+++ b/configs/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA06104-9000-471C-AA52-853247C89AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84501539-6FF4-4E8C-82CD-565F44B11477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{32817E20-F0A4-463C-B290-2589502B59A4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$N$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$R$334</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="894">
   <si>
     <t>id</t>
   </si>
@@ -2717,6 +2717,12 @@
   </si>
   <si>
     <t>INV_Misc_Bone_ElfSkull_01</t>
+  </si>
+  <si>
+    <t>sockets</t>
+  </si>
+  <si>
+    <t>镶孔个数</t>
   </si>
 </sst>
 </file>
@@ -3113,12 +3119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q334"/>
+  <dimension ref="A1:R334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H335" sqref="H335"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3141,7 +3146,7 @@
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3193,8 +3198,11 @@
       <c r="Q1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>824</v>
       </c>
@@ -3246,13 +3254,16 @@
       <c r="Q2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>498</v>
       </c>
@@ -3304,8 +3315,11 @@
       <c r="Q4" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R4" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3342,8 +3356,11 @@
       <c r="M5" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3374,8 +3391,11 @@
       <c r="L6" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -3409,8 +3429,11 @@
       <c r="M7" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -3441,8 +3464,11 @@
       <c r="L8" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -3476,8 +3502,11 @@
       <c r="M9" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -3508,8 +3537,11 @@
       <c r="L10" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -3540,8 +3572,11 @@
       <c r="L11" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -3572,8 +3607,11 @@
       <c r="L12" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3590,7 +3628,7 @@
         <v>45</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H6:H69" si="0">LEFT(B13,1)</f>
+        <f t="shared" ref="H13:H69" si="0">LEFT(B13,1)</f>
         <v>重</v>
       </c>
       <c r="I13" t="s">
@@ -3609,7 +3647,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3645,7 +3683,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3681,7 +3719,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3717,7 +3755,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -3753,7 +3791,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -3789,7 +3827,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -3825,7 +3863,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -3861,7 +3899,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -3897,7 +3935,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -3933,7 +3971,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>148</v>
       </c>
@@ -3969,7 +4007,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -4005,7 +4043,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>346</v>
       </c>
@@ -4032,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>534</v>
       </c>
@@ -4059,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>535</v>
       </c>
@@ -4086,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>536</v>
       </c>
@@ -4113,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -4140,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>538</v>
       </c>
@@ -4167,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>384</v>
       </c>
@@ -4196,8 +4234,11 @@
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>385</v>
       </c>
@@ -4226,8 +4267,11 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -4256,8 +4300,11 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>387</v>
       </c>
@@ -4286,8 +4333,11 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>388</v>
       </c>
@@ -4316,8 +4366,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>389</v>
       </c>
@@ -4346,8 +4399,11 @@
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>390</v>
       </c>
@@ -4376,8 +4432,11 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>391</v>
       </c>
@@ -4404,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>411</v>
       </c>
@@ -4431,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>414</v>
       </c>
@@ -4458,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>418</v>
       </c>
@@ -4485,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>419</v>
       </c>
@@ -4512,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>422</v>
       </c>
@@ -4542,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>436</v>
       </c>
@@ -4569,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>437</v>
       </c>
@@ -4596,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>550</v>
       </c>
@@ -4623,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>551</v>
       </c>
@@ -4650,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>552</v>
       </c>
@@ -4677,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>553</v>
       </c>
@@ -4704,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>554</v>
       </c>
@@ -4731,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>555</v>
       </c>
@@ -4758,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>556</v>
       </c>
@@ -4785,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>557</v>
       </c>
@@ -4812,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>558</v>
       </c>
@@ -4839,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>559</v>
       </c>
@@ -4866,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>560</v>
       </c>
@@ -4893,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>400</v>
       </c>
@@ -4922,8 +4981,11 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>401</v>
       </c>
@@ -4952,8 +5014,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>402</v>
       </c>
@@ -4982,8 +5047,11 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>403</v>
       </c>
@@ -5012,8 +5080,11 @@
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>404</v>
       </c>
@@ -5042,8 +5113,11 @@
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>405</v>
       </c>
@@ -5072,8 +5146,11 @@
       <c r="K62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>406</v>
       </c>
@@ -5102,8 +5179,11 @@
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>407</v>
       </c>
@@ -5130,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -5157,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>409</v>
       </c>
@@ -5184,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>410</v>
       </c>
@@ -5211,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>417</v>
       </c>
@@ -5238,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>423</v>
       </c>
@@ -5265,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>425</v>
       </c>
@@ -5279,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" ref="H70:H83" si="1">LEFT(B70,1)</f>
+        <f t="shared" ref="H70:H82" si="1">LEFT(B70,1)</f>
         <v>失</v>
       </c>
       <c r="I70" t="s">
@@ -5292,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>430</v>
       </c>
@@ -5319,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>438</v>
       </c>
@@ -5349,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>570</v>
       </c>
@@ -5376,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>571</v>
       </c>
@@ -5403,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>573</v>
       </c>
@@ -5430,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>574</v>
       </c>
@@ -5457,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>575</v>
       </c>
@@ -5484,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>576</v>
       </c>
@@ -5511,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>577</v>
       </c>
@@ -5538,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>578</v>
       </c>
@@ -5565,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>579</v>
       </c>
@@ -5592,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>580</v>
       </c>
@@ -5619,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>494</v>
       </c>
@@ -5648,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>495</v>
       </c>
@@ -5677,7 +5757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>496</v>
       </c>
@@ -5706,7 +5786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>373</v>
       </c>
@@ -5723,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" ref="H85:H116" si="2">LEFT(B86,1)</f>
+        <f t="shared" ref="H86:H116" si="2">LEFT(B86,1)</f>
         <v>布</v>
       </c>
       <c r="I86" t="s">
@@ -5735,8 +5815,11 @@
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>374</v>
       </c>
@@ -5765,8 +5848,11 @@
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -5795,8 +5881,11 @@
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -5825,8 +5914,11 @@
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>377</v>
       </c>
@@ -5855,8 +5947,11 @@
       <c r="K90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -5885,8 +5980,11 @@
       <c r="K91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>379</v>
       </c>
@@ -5915,8 +6013,11 @@
       <c r="K92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>380</v>
       </c>
@@ -5943,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>381</v>
       </c>
@@ -5970,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>382</v>
       </c>
@@ -5997,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>383</v>
       </c>
@@ -6024,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>412</v>
       </c>
@@ -6051,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>421</v>
       </c>
@@ -6078,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>427</v>
       </c>
@@ -6105,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>431</v>
       </c>
@@ -6132,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>441</v>
       </c>
@@ -6159,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>591</v>
       </c>
@@ -6186,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>592</v>
       </c>
@@ -6213,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>593</v>
       </c>
@@ -6240,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>594</v>
       </c>
@@ -6267,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>595</v>
       </c>
@@ -6294,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>596</v>
       </c>
@@ -6321,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>597</v>
       </c>
@@ -6348,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>598</v>
       </c>
@@ -6375,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>599</v>
       </c>
@@ -6402,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>600</v>
       </c>
@@ -6429,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>150</v>
       </c>
@@ -6458,8 +6559,11 @@
       <c r="K112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>502</v>
       </c>
@@ -6488,8 +6592,11 @@
       <c r="K113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>503</v>
       </c>
@@ -6518,8 +6625,11 @@
       <c r="K114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>504</v>
       </c>
@@ -6551,8 +6661,11 @@
       <c r="L115" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>505</v>
       </c>
@@ -6581,8 +6694,11 @@
       <c r="K116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>506</v>
       </c>
@@ -6611,8 +6727,11 @@
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>507</v>
       </c>
@@ -6641,8 +6760,11 @@
       <c r="K118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>508</v>
       </c>
@@ -6675,7 +6797,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>509</v>
       </c>
@@ -6708,7 +6830,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>510</v>
       </c>
@@ -6738,7 +6860,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>511</v>
       </c>
@@ -6768,7 +6890,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>512</v>
       </c>
@@ -6801,7 +6923,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>513</v>
       </c>
@@ -6834,7 +6956,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>514</v>
       </c>
@@ -6867,7 +6989,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>429</v>
       </c>
@@ -6894,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>433</v>
       </c>
@@ -6924,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>434</v>
       </c>
@@ -6954,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>435</v>
       </c>
@@ -6984,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>609</v>
       </c>
@@ -7011,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>610</v>
       </c>
@@ -7038,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>611</v>
       </c>
@@ -7065,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>612</v>
       </c>
@@ -7092,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>613</v>
       </c>
@@ -7119,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>614</v>
       </c>
@@ -7146,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>615</v>
       </c>
@@ -7173,7 +7295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>616</v>
       </c>
@@ -7200,7 +7322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>825</v>
       </c>
@@ -7228,8 +7350,11 @@
       <c r="K138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>472</v>
       </c>
@@ -7259,7 +7384,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>473</v>
       </c>
@@ -7289,7 +7414,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>474</v>
       </c>
@@ -7319,7 +7444,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>475</v>
       </c>
@@ -7349,7 +7474,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>476</v>
       </c>
@@ -7379,7 +7504,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>477</v>
       </c>
@@ -7412,7 +7537,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>478</v>
       </c>
@@ -7442,7 +7567,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>479</v>
       </c>
@@ -7472,7 +7597,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>480</v>
       </c>
@@ -7502,7 +7627,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>481</v>
       </c>
@@ -7532,7 +7657,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>482</v>
       </c>
@@ -7562,7 +7687,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>483</v>
       </c>
@@ -7592,7 +7717,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>484</v>
       </c>
@@ -7622,7 +7747,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>485</v>
       </c>
@@ -7652,7 +7777,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>486</v>
       </c>
@@ -7682,7 +7807,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>487</v>
       </c>
@@ -7712,7 +7837,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>488</v>
       </c>
@@ -7742,7 +7867,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>489</v>
       </c>
@@ -7772,7 +7897,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>490</v>
       </c>
@@ -7802,7 +7927,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>491</v>
       </c>
@@ -7832,7 +7957,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>492</v>
       </c>
@@ -7862,7 +7987,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>493</v>
       </c>
@@ -7892,7 +8017,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>621</v>
       </c>
@@ -7919,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>622</v>
       </c>
@@ -7946,7 +8071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>623</v>
       </c>
@@ -7973,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>624</v>
       </c>
@@ -8000,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>392</v>
       </c>
@@ -8029,8 +8154,11 @@
       <c r="K165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>393</v>
       </c>
@@ -8059,8 +8187,11 @@
       <c r="K166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>394</v>
       </c>
@@ -8089,8 +8220,11 @@
       <c r="K167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>395</v>
       </c>
@@ -8119,8 +8253,11 @@
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>396</v>
       </c>
@@ -8149,8 +8286,11 @@
       <c r="K169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>397</v>
       </c>
@@ -8179,8 +8319,11 @@
       <c r="K170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>398</v>
       </c>
@@ -8209,8 +8352,11 @@
       <c r="K171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>399</v>
       </c>
@@ -8237,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>413</v>
       </c>
@@ -8264,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>415</v>
       </c>
@@ -8291,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>416</v>
       </c>
@@ -8318,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>420</v>
       </c>
@@ -8345,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>424</v>
       </c>
@@ -8372,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>426</v>
       </c>
@@ -8399,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>432</v>
       </c>
@@ -8426,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>442</v>
       </c>
@@ -8453,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>635</v>
       </c>
@@ -8480,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>636</v>
       </c>
@@ -8507,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>637</v>
       </c>
@@ -8534,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>638</v>
       </c>
@@ -8561,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>639</v>
       </c>
@@ -8588,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>640</v>
       </c>
@@ -8615,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>641</v>
       </c>
@@ -8642,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>642</v>
       </c>
@@ -8669,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>643</v>
       </c>
@@ -8696,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>644</v>
       </c>
@@ -8723,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>515</v>
       </c>
@@ -8752,8 +8898,11 @@
       <c r="K191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>516</v>
       </c>
@@ -8782,8 +8931,11 @@
       <c r="K192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>517</v>
       </c>
@@ -8812,8 +8964,11 @@
       <c r="K193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>518</v>
       </c>
@@ -8842,8 +8997,11 @@
       <c r="K194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>519</v>
       </c>
@@ -8872,8 +9030,11 @@
       <c r="K195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>520</v>
       </c>
@@ -8902,8 +9063,11 @@
       <c r="K196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>521</v>
       </c>
@@ -8932,8 +9096,11 @@
       <c r="K197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>522</v>
       </c>
@@ -8960,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>523</v>
       </c>
@@ -8987,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>524</v>
       </c>
@@ -9014,7 +9181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>525</v>
       </c>
@@ -9041,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>526</v>
       </c>
@@ -9068,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>527</v>
       </c>
@@ -9095,7 +9262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>528</v>
       </c>
@@ -9122,7 +9289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>428</v>
       </c>
@@ -9149,7 +9316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>440</v>
       </c>
@@ -9176,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>657</v>
       </c>
@@ -9203,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>658</v>
       </c>
@@ -9230,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>659</v>
       </c>
@@ -9257,7 +9424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>660</v>
       </c>
@@ -9284,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>661</v>
       </c>
@@ -9311,7 +9478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>662</v>
       </c>
@@ -9338,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>663</v>
       </c>
@@ -9365,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>664</v>
       </c>
@@ -9392,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>665</v>
       </c>
@@ -9419,7 +9586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>666</v>
       </c>
@@ -9446,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>827</v>
       </c>
@@ -9474,8 +9641,11 @@
       <c r="K217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>447</v>
       </c>
@@ -9502,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>448</v>
       </c>
@@ -9529,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>449</v>
       </c>
@@ -9556,7 +9726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>450</v>
       </c>
@@ -9583,7 +9753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>451</v>
       </c>
@@ -9610,7 +9780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>452</v>
       </c>
@@ -9637,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>453</v>
       </c>
@@ -9664,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>454</v>
       </c>
@@ -9691,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>455</v>
       </c>
@@ -9718,7 +9888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>456</v>
       </c>
@@ -9745,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>457</v>
       </c>
@@ -9772,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>458</v>
       </c>
@@ -9799,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -9826,7 +9996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -9853,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>461</v>
       </c>
@@ -9880,7 +10050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -9907,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>463</v>
       </c>
@@ -9934,7 +10104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>464</v>
       </c>
@@ -9961,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>465</v>
       </c>
@@ -9988,7 +10158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>466</v>
       </c>
@@ -10015,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -10042,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>468</v>
       </c>
@@ -10069,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>469</v>
       </c>
@@ -10096,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>470</v>
       </c>
@@ -10123,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>471</v>
       </c>
@@ -10150,7 +10320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>646</v>
       </c>
@@ -10177,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -10211,8 +10381,11 @@
       <c r="L244" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -10246,8 +10419,11 @@
       <c r="L245" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -10284,8 +10460,11 @@
       <c r="M246" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -10319,8 +10498,11 @@
       <c r="L247" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -10354,8 +10536,11 @@
       <c r="L248" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -10389,8 +10574,11 @@
       <c r="L249" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -10424,8 +10612,11 @@
       <c r="L250" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R250">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -10457,7 +10648,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -10489,7 +10680,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -10524,7 +10715,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>16</v>
       </c>
@@ -10559,7 +10750,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -10594,7 +10785,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>18</v>
       </c>
@@ -10629,7 +10820,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>19</v>
       </c>
@@ -10664,7 +10855,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -10699,7 +10890,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>21</v>
       </c>
@@ -10734,7 +10925,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>22</v>
       </c>
@@ -10769,7 +10960,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -10804,7 +10995,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -10839,7 +11030,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>25</v>
       </c>
@@ -10877,7 +11068,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>26</v>
       </c>
@@ -10912,7 +11103,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -10947,7 +11138,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>28</v>
       </c>
@@ -10985,7 +11176,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>29</v>
       </c>
@@ -11020,7 +11211,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>30</v>
       </c>
@@ -11058,7 +11249,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>31</v>
       </c>
@@ -11096,7 +11287,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>32</v>
       </c>
@@ -11134,7 +11325,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>33</v>
       </c>
@@ -11172,7 +11363,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>34</v>
       </c>
@@ -11210,7 +11401,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>497</v>
       </c>
@@ -11237,7 +11428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>499</v>
       </c>
@@ -11264,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>500</v>
       </c>
@@ -11291,7 +11482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>501</v>
       </c>
@@ -11318,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>439</v>
       </c>
@@ -11348,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>443</v>
       </c>
@@ -11378,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>444</v>
       </c>
@@ -11408,7 +11599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>445</v>
       </c>
@@ -11438,7 +11629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>446</v>
       </c>
@@ -11465,7 +11656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>347</v>
       </c>
@@ -11494,8 +11685,11 @@
       <c r="K282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>348</v>
       </c>
@@ -11524,8 +11718,11 @@
       <c r="K283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>349</v>
       </c>
@@ -11554,8 +11751,11 @@
       <c r="K284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>350</v>
       </c>
@@ -11584,8 +11784,11 @@
       <c r="K285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>351</v>
       </c>
@@ -11614,8 +11817,11 @@
       <c r="K286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>352</v>
       </c>
@@ -11644,8 +11850,11 @@
       <c r="K287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>353</v>
       </c>
@@ -11674,8 +11883,11 @@
       <c r="K288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>354</v>
       </c>
@@ -11702,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>355</v>
       </c>
@@ -11729,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>356</v>
       </c>
@@ -11756,7 +11968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>357</v>
       </c>
@@ -11783,7 +11995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>358</v>
       </c>
@@ -11810,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>359</v>
       </c>
@@ -11837,7 +12049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>360</v>
       </c>
@@ -11864,7 +12076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>361</v>
       </c>
@@ -11891,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>362</v>
       </c>
@@ -11918,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>363</v>
       </c>
@@ -11945,7 +12157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>364</v>
       </c>
@@ -11972,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>365</v>
       </c>
@@ -11999,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>366</v>
       </c>
@@ -12026,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>367</v>
       </c>
@@ -12053,7 +12265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>368</v>
       </c>
@@ -12080,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>369</v>
       </c>
@@ -12107,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>370</v>
       </c>
@@ -12134,7 +12346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>371</v>
       </c>
@@ -12161,7 +12373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>372</v>
       </c>
@@ -12188,7 +12400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>731</v>
       </c>
@@ -12217,7 +12429,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>732</v>
       </c>
@@ -12246,7 +12458,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>733</v>
       </c>
@@ -12275,7 +12487,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>734</v>
       </c>
@@ -12304,7 +12516,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>735</v>
       </c>
@@ -12333,7 +12545,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>736</v>
       </c>
@@ -12362,7 +12574,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>737</v>
       </c>
@@ -12391,7 +12603,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>738</v>
       </c>
@@ -12420,7 +12632,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>739</v>
       </c>
@@ -12449,7 +12661,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>740</v>
       </c>
@@ -12478,7 +12690,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>741</v>
       </c>
@@ -12507,7 +12719,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>742</v>
       </c>
@@ -12536,7 +12748,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>743</v>
       </c>
@@ -12565,7 +12777,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>744</v>
       </c>
@@ -12594,7 +12806,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>745</v>
       </c>
@@ -12623,7 +12835,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>746</v>
       </c>
@@ -12652,7 +12864,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>747</v>
       </c>
@@ -12681,7 +12893,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>748</v>
       </c>
@@ -12710,7 +12922,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>749</v>
       </c>
@@ -12739,7 +12951,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>750</v>
       </c>
@@ -12768,7 +12980,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>751</v>
       </c>
@@ -12797,7 +13009,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>752</v>
       </c>
@@ -12826,7 +13038,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>753</v>
       </c>
@@ -12855,7 +13067,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>754</v>
       </c>
@@ -12884,7 +13096,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>755</v>
       </c>
@@ -12913,7 +13125,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>759</v>
       </c>
@@ -12943,7 +13155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>765</v>
       </c>
@@ -12971,16 +13183,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N334" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="charm"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N238">
-      <sortCondition ref="I4"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A4:R334" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
